--- a/CLUSTER_DF.xlsx
+++ b/CLUSTER_DF.xlsx
@@ -451,52 +451,52 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>NA in Total Deaths</t>
+          <t>#Disasters</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>#Disasters</t>
+          <t>Missing Data</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Missing Data</t>
+          <t>Total Deaths</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Total Deaths</t>
+          <t>CPI</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>Hydrological</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Meteorological</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Climatological</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Fatality 5-Year-Mean</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Population</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Land Total</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Hydrological</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Meteorological</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Climatological</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -538,34 +538,34 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="F2" t="n">
-        <v>136</v>
+        <v>0.125</v>
       </c>
       <c r="G2" t="n">
-        <v>0.125</v>
+        <v>8940</v>
       </c>
       <c r="H2" t="n">
-        <v>8940</v>
+        <v>80.24613272280531</v>
       </c>
       <c r="I2" t="n">
-        <v>80.24613272280531</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="J2" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.04411764705882353</v>
+      </c>
+      <c r="L2" t="n">
+        <v>975</v>
+      </c>
+      <c r="M2" t="n">
         <v>30419928</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>652230</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.8382352941176471</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.04411764705882353</v>
       </c>
       <c r="O2" t="n">
         <v>75223520180.92549</v>
@@ -598,34 +598,34 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>85</v>
+        <v>0.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>529</v>
       </c>
       <c r="H3" t="n">
-        <v>529</v>
+        <v>77.61995432515585</v>
       </c>
       <c r="I3" t="n">
-        <v>77.61995432515585</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="J3" t="n">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.09411764705882353</v>
+      </c>
+      <c r="L3" t="n">
+        <v>36</v>
+      </c>
+      <c r="M3" t="n">
         <v>42192494</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>2780400</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.6235294117647059</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.2823529411764706</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.09411764705882353</v>
       </c>
       <c r="O3" t="n">
         <v>972894492689.0217</v>
@@ -658,34 +658,32 @@
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3684210526315789</v>
+        <v>129</v>
       </c>
       <c r="H4" t="n">
-        <v>129</v>
+        <v>74.03063913255856</v>
       </c>
       <c r="I4" t="n">
-        <v>74.03063913255856</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="J4" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>9598787</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>112622</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.05263157894736842</v>
       </c>
       <c r="O4" t="n">
         <v>34983860491.13505</v>
@@ -718,34 +716,34 @@
         <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G5" t="n">
+        <v>185</v>
+      </c>
+      <c r="H5" t="n">
+        <v>79.93810847338325</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L5" t="n">
         <v>25</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H5" t="n">
-        <v>185</v>
-      </c>
-      <c r="I5" t="n">
-        <v>79.93810847338325</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>17275115</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>274200</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.2</v>
       </c>
       <c r="O5" t="n">
         <v>38947380333.57082</v>
@@ -778,34 +776,34 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="F6" t="n">
-        <v>214</v>
+        <v>0.08411214953271028</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08411214953271028</v>
+        <v>162203</v>
       </c>
       <c r="H6" t="n">
-        <v>162203</v>
+        <v>71.45962470454307</v>
       </c>
       <c r="I6" t="n">
-        <v>71.45962470454307</v>
+        <v>0.3504672897196262</v>
       </c>
       <c r="J6" t="n">
+        <v>0.6448598130841121</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.004672897196261682</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1033</v>
+      </c>
+      <c r="M6" t="n">
         <v>161083804</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>143998</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.3504672897196262</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.6448598130841121</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.004672897196261682</v>
       </c>
       <c r="O6" t="n">
         <v>674301080913.2288</v>
@@ -838,34 +836,34 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>409</v>
       </c>
       <c r="H7" t="n">
-        <v>409</v>
+        <v>77.26039358603285</v>
       </c>
       <c r="I7" t="n">
-        <v>77.26039358603285</v>
+        <v>0.1</v>
       </c>
       <c r="J7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>389</v>
+      </c>
+      <c r="M7" t="n">
         <v>316182</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>13880</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>13797140054.75366</v>
@@ -898,34 +896,34 @@
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="F8" t="n">
-        <v>153</v>
+        <v>0.1830065359477124</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1830065359477124</v>
+        <v>4787</v>
       </c>
       <c r="H8" t="n">
-        <v>4787</v>
+        <v>75.00467938254101</v>
       </c>
       <c r="I8" t="n">
-        <v>75.00467938254101</v>
+        <v>0.7973856209150327</v>
       </c>
       <c r="J8" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0915032679738562</v>
+      </c>
+      <c r="L8" t="n">
+        <v>144</v>
+      </c>
+      <c r="M8" t="n">
         <v>205716890</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>8514877</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.7973856209150327</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0915032679738562</v>
       </c>
       <c r="O8" t="n">
         <v>3066513176178.741</v>
@@ -958,34 +956,34 @@
         <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6923076923076923</v>
+        <v>43</v>
       </c>
       <c r="H9" t="n">
-        <v>43</v>
+        <v>81.9044631310565</v>
       </c>
       <c r="I9" t="n">
-        <v>81.9044631310565</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="J9" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>2098018</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
         <v>581730</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.1538461538461539</v>
       </c>
       <c r="O9" t="n">
         <v>38351205181.23086</v>
@@ -1018,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>91</v>
+        <v>651</v>
       </c>
       <c r="F10" t="n">
-        <v>651</v>
+        <v>0.1397849462365591</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1397849462365591</v>
+        <v>54422</v>
       </c>
       <c r="H10" t="n">
-        <v>54422</v>
+        <v>77.41887605792341</v>
       </c>
       <c r="I10" t="n">
-        <v>77.41887605792341</v>
+        <v>0.5023041474654378</v>
       </c>
       <c r="J10" t="n">
+        <v>0.4470046082949309</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.05069124423963134</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3137</v>
+      </c>
+      <c r="M10" t="n">
         <v>1343239923</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>9596961</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.5023041474654378</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.4470046082949309</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.05069124423963134</v>
       </c>
       <c r="O10" t="n">
         <v>20333149317056.62</v>
@@ -1078,34 +1076,34 @@
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2380952380952381</v>
+        <v>205</v>
       </c>
       <c r="H11" t="n">
-        <v>205</v>
+        <v>78.36182496168254</v>
       </c>
       <c r="I11" t="n">
-        <v>78.36182496168254</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L11" t="n">
+        <v>61</v>
+      </c>
+      <c r="M11" t="n">
         <v>20129878</v>
       </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
         <v>475440</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.1428571428571428</v>
       </c>
       <c r="O11" t="n">
         <v>87251608793.89975</v>
@@ -1138,34 +1136,34 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="F12" t="n">
-        <v>110</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2272727272727273</v>
+        <v>3760</v>
       </c>
       <c r="H12" t="n">
-        <v>3760</v>
+        <v>76.32090049790344</v>
       </c>
       <c r="I12" t="n">
-        <v>76.32090049790344</v>
+        <v>0.8818181818181818</v>
       </c>
       <c r="J12" t="n">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L12" t="n">
+        <v>597</v>
+      </c>
+      <c r="M12" t="n">
         <v>45239079</v>
       </c>
-      <c r="K12" t="n">
+      <c r="N12" t="n">
         <v>1138910</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.8818181818181818</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.04545454545454546</v>
       </c>
       <c r="O12" t="n">
         <v>706532828669.7064</v>
@@ -1198,34 +1196,34 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>0.3</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3</v>
+        <v>240</v>
       </c>
       <c r="H13" t="n">
-        <v>240</v>
+        <v>74.27288875031692</v>
       </c>
       <c r="I13" t="n">
-        <v>74.27288875031692</v>
+        <v>0.65</v>
       </c>
       <c r="J13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>23</v>
+      </c>
+      <c r="M13" t="n">
         <v>4636348</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
         <v>51100</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.1</v>
       </c>
       <c r="O13" t="n">
         <v>93157521389.24841</v>
@@ -1258,34 +1256,34 @@
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F14" t="n">
-        <v>57</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5087719298245614</v>
+        <v>195</v>
       </c>
       <c r="H14" t="n">
-        <v>195</v>
+        <v>72.37236633199907</v>
       </c>
       <c r="I14" t="n">
-        <v>72.37236633199907</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="J14" t="n">
+        <v>0.5614035087719298</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.08771929824561403</v>
+      </c>
+      <c r="L14" t="n">
+        <v>28</v>
+      </c>
+      <c r="M14" t="n">
         <v>11075244</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>110860</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.3508771929824561</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.5614035087719298</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.08771929824561403</v>
       </c>
       <c r="O14" t="n">
         <v>44671600567047.1</v>
@@ -1318,34 +1316,34 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F15" t="n">
-        <v>78</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2435897435897436</v>
+        <v>9723</v>
       </c>
       <c r="H15" t="n">
-        <v>9723</v>
+        <v>74.63635169257778</v>
       </c>
       <c r="I15" t="n">
-        <v>74.63635169257778</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="J15" t="n">
+        <v>0.7435897435897436</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>22</v>
+      </c>
+      <c r="M15" t="n">
         <v>81305856</v>
       </c>
-      <c r="K15" t="n">
+      <c r="N15" t="n">
         <v>357022</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.2564102564102564</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>4333273027796.834</v>
@@ -1378,34 +1376,34 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F16" t="n">
-        <v>58</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.293103448275862</v>
+        <v>1414</v>
       </c>
       <c r="H16" t="n">
-        <v>1414</v>
+        <v>79.6266140395206</v>
       </c>
       <c r="I16" t="n">
-        <v>79.6266140395206</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="J16" t="n">
+        <v>0.5344827586206896</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="L16" t="n">
+        <v>22</v>
+      </c>
+      <c r="M16" t="n">
         <v>10088598</v>
       </c>
-      <c r="K16" t="n">
+      <c r="N16" t="n">
         <v>48670</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.4482758620689655</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.5344827586206896</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.01724137931034483</v>
       </c>
       <c r="O16" t="n">
         <v>178860789393.9576</v>
@@ -1438,34 +1436,34 @@
         <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F17" t="n">
-        <v>48</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08333333333333333</v>
+        <v>1632</v>
       </c>
       <c r="H17" t="n">
-        <v>1632</v>
+        <v>74.51901369092978</v>
       </c>
       <c r="I17" t="n">
-        <v>74.51901369092978</v>
+        <v>0.8125</v>
       </c>
       <c r="J17" t="n">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="L17" t="n">
+        <v>26</v>
+      </c>
+      <c r="M17" t="n">
         <v>35406303</v>
       </c>
-      <c r="K17" t="n">
+      <c r="N17" t="n">
         <v>2381741</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.04166666666666666</v>
       </c>
       <c r="O17" t="n">
         <v>491128978646.0748</v>
@@ -1498,34 +1496,34 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F18" t="n">
-        <v>68</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4264705882352941</v>
+        <v>2205</v>
       </c>
       <c r="H18" t="n">
-        <v>2205</v>
+        <v>74.43805040068757</v>
       </c>
       <c r="I18" t="n">
-        <v>74.43805040068757</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1617647058823529</v>
+      </c>
+      <c r="L18" t="n">
+        <v>195</v>
+      </c>
+      <c r="M18" t="n">
         <v>93815992</v>
       </c>
-      <c r="K18" t="n">
+      <c r="N18" t="n">
         <v>1104300</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.8382352941176471</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.1617647058823529</v>
       </c>
       <c r="O18" t="n">
         <v>214441344531.469</v>
@@ -1558,34 +1556,32 @@
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>78.11235567554135</v>
       </c>
       <c r="I19" t="n">
-        <v>78.11235567554135</v>
+        <v>0.4</v>
       </c>
       <c r="J19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1608321</v>
       </c>
-      <c r="K19" t="n">
+      <c r="N19" t="n">
         <v>267667</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>30845535027.97881</v>
@@ -1618,34 +1614,34 @@
         <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F20" t="n">
-        <v>48</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4166666666666667</v>
+        <v>396</v>
       </c>
       <c r="H20" t="n">
-        <v>396</v>
+        <v>75.12856476505287</v>
       </c>
       <c r="I20" t="n">
-        <v>75.12856476505287</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="J20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="L20" t="n">
+        <v>137</v>
+      </c>
+      <c r="M20" t="n">
         <v>10767827</v>
       </c>
-      <c r="K20" t="n">
+      <c r="N20" t="n">
         <v>131957</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.2083333333333333</v>
       </c>
       <c r="O20" t="n">
         <v>307793666892.5428</v>
@@ -1678,34 +1674,34 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F21" t="n">
-        <v>69</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3623188405797101</v>
+        <v>3222</v>
       </c>
       <c r="H21" t="n">
-        <v>3222</v>
+        <v>81.97832499610624</v>
       </c>
       <c r="I21" t="n">
-        <v>81.97832499610624</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="J21" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="L21" t="n">
+        <v>394</v>
+      </c>
+      <c r="M21" t="n">
         <v>14099032</v>
       </c>
-      <c r="K21" t="n">
+      <c r="N21" t="n">
         <v>108889</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.5797101449275363</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.08695652173913043</v>
       </c>
       <c r="O21" t="n">
         <v>136547316775.7757</v>
@@ -1738,34 +1734,34 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F22" t="n">
-        <v>61</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2950819672131147</v>
+        <v>15790</v>
       </c>
       <c r="H22" t="n">
-        <v>15790</v>
+        <v>75.45696471121646</v>
       </c>
       <c r="I22" t="n">
-        <v>75.45696471121646</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="J22" t="n">
+        <v>0.3114754098360656</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1639344262295082</v>
+      </c>
+      <c r="L22" t="n">
+        <v>34</v>
+      </c>
+      <c r="M22" t="n">
         <v>8296693</v>
       </c>
-      <c r="K22" t="n">
+      <c r="N22" t="n">
         <v>112090</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.5245901639344263</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.3114754098360656</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.1639344262295082</v>
       </c>
       <c r="O22" t="n">
         <v>51624372996.13697</v>
@@ -1798,34 +1794,34 @@
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="F23" t="n">
-        <v>91</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1758241758241758</v>
+        <v>9032</v>
       </c>
       <c r="H23" t="n">
-        <v>9032</v>
+        <v>78.17320840716556</v>
       </c>
       <c r="I23" t="n">
-        <v>78.17320840716556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J23" t="n">
+        <v>0.3956043956043956</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="L23" t="n">
+        <v>659</v>
+      </c>
+      <c r="M23" t="n">
         <v>9801664</v>
       </c>
-      <c r="K23" t="n">
+      <c r="N23" t="n">
         <v>27750</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.3956043956043956</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.03296703296703297</v>
       </c>
       <c r="O23" t="n">
         <v>32971400568.6764</v>
@@ -1858,34 +1854,34 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="F24" t="n">
-        <v>75</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G24" t="n">
+        <v>7445</v>
+      </c>
+      <c r="H24" t="n">
+        <v>77.86439503158893</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.7733333333333333</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>7445</v>
-      </c>
-      <c r="I24" t="n">
-        <v>77.86439503158893</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
+        <v>649</v>
+      </c>
+      <c r="M24" t="n">
         <v>29890686</v>
       </c>
-      <c r="K24" t="n">
+      <c r="N24" t="n">
         <v>147181</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.7733333333333333</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="O24" t="n">
         <v>84568808202.37161</v>
@@ -1918,34 +1914,34 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="F25" t="n">
-        <v>181</v>
+        <v>0.1712707182320442</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1712707182320442</v>
+        <v>4912</v>
       </c>
       <c r="H25" t="n">
-        <v>4912</v>
+        <v>75.48649535099362</v>
       </c>
       <c r="I25" t="n">
-        <v>75.48649535099362</v>
+        <v>0.3535911602209945</v>
       </c>
       <c r="J25" t="n">
+        <v>0.6022099447513812</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.04419889502762431</v>
+      </c>
+      <c r="L25" t="n">
+        <v>219</v>
+      </c>
+      <c r="M25" t="n">
         <v>114975406</v>
       </c>
-      <c r="K25" t="n">
+      <c r="N25" t="n">
         <v>1964375</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.3535911602209945</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.6022099447513812</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.04419889502762431</v>
       </c>
       <c r="O25" t="n">
         <v>2457950902712.622</v>
@@ -1978,34 +1974,34 @@
         <v>18</v>
       </c>
       <c r="E26" t="n">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="F26" t="n">
-        <v>262</v>
+        <v>0.1755725190839695</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1755725190839695</v>
+        <v>8098</v>
       </c>
       <c r="H26" t="n">
-        <v>8098</v>
+        <v>80.1000284768644</v>
       </c>
       <c r="I26" t="n">
-        <v>80.1000284768644</v>
+        <v>0.9274809160305344</v>
       </c>
       <c r="J26" t="n">
+        <v>0.01908396946564886</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.05343511450381679</v>
+      </c>
+      <c r="L26" t="n">
+        <v>888</v>
+      </c>
+      <c r="M26" t="n">
         <v>248216193</v>
       </c>
-      <c r="K26" t="n">
+      <c r="N26" t="n">
         <v>1904569</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.9274809160305344</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.01908396946564886</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.05343511450381679</v>
       </c>
       <c r="O26" t="n">
         <v>2948552331138.69</v>
@@ -2038,34 +2034,34 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>24</v>
+        <v>429</v>
       </c>
       <c r="F27" t="n">
-        <v>429</v>
+        <v>0.05594405594405594</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05594405594405594</v>
+        <v>85546</v>
       </c>
       <c r="H27" t="n">
-        <v>85546</v>
+        <v>77.32930036829465</v>
       </c>
       <c r="I27" t="n">
-        <v>77.32930036829465</v>
+        <v>0.6130536130536131</v>
       </c>
       <c r="J27" t="n">
+        <v>0.365967365967366</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.02097902097902098</v>
+      </c>
+      <c r="L27" t="n">
+        <v>10472</v>
+      </c>
+      <c r="M27" t="n">
         <v>1205073612</v>
       </c>
-      <c r="K27" t="n">
+      <c r="N27" t="n">
         <v>3287263</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.6130536130536131</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.365967365967366</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.02097902097902098</v>
       </c>
       <c r="O27" t="n">
         <v>8347543561097.938</v>
@@ -2098,34 +2094,34 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="F28" t="n">
-        <v>87</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1839080459770115</v>
+        <v>2557</v>
       </c>
       <c r="H28" t="n">
-        <v>2557</v>
+        <v>70.34713187186838</v>
       </c>
       <c r="I28" t="n">
-        <v>70.34713187186838</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="J28" t="n">
+        <v>0.1149425287356322</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.02298850574712644</v>
+      </c>
+      <c r="L28" t="n">
+        <v>201</v>
+      </c>
+      <c r="M28" t="n">
         <v>78868711</v>
       </c>
-      <c r="K28" t="n">
+      <c r="N28" t="n">
         <v>1648195</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.1149425287356322</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.02298850574712644</v>
       </c>
       <c r="O28" t="n">
         <v>1111122294285.627</v>
@@ -2158,34 +2154,34 @@
         <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F29" t="n">
-        <v>26</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2692307692307692</v>
+        <v>148</v>
       </c>
       <c r="H29" t="n">
-        <v>148</v>
+        <v>73.58357500621503</v>
       </c>
       <c r="I29" t="n">
-        <v>73.58357500621503</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="J29" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>2889187</v>
       </c>
-      <c r="K29" t="n">
+      <c r="N29" t="n">
         <v>10991</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.07692307692307693</v>
       </c>
       <c r="O29" t="n">
         <v>27899670136.13269</v>
@@ -2218,34 +2214,34 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F30" t="n">
-        <v>68</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1617647058823529</v>
+        <v>2263</v>
       </c>
       <c r="H30" t="n">
-        <v>2263</v>
+        <v>81.72516962324326</v>
       </c>
       <c r="I30" t="n">
-        <v>81.72516962324326</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="J30" t="n">
+        <v>0.01470588235294118</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="L30" t="n">
+        <v>527</v>
+      </c>
+      <c r="M30" t="n">
         <v>43013341</v>
       </c>
-      <c r="K30" t="n">
+      <c r="N30" t="n">
         <v>580367</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.8382352941176471</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.01470588235294118</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.1470588235294118</v>
       </c>
       <c r="O30" t="n">
         <v>200301873685.139</v>
@@ -2278,34 +2274,34 @@
         <v>17</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F31" t="n">
-        <v>76</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1184210526315789</v>
+        <v>2229</v>
       </c>
       <c r="H31" t="n">
-        <v>2229</v>
+        <v>72.70733551111148</v>
       </c>
       <c r="I31" t="n">
-        <v>72.70733551111148</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="J31" t="n">
+        <v>0.5657894736842105</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.06578947368421052</v>
+      </c>
+      <c r="L31" t="n">
+        <v>36</v>
+      </c>
+      <c r="M31" t="n">
         <v>48860500</v>
       </c>
-      <c r="K31" t="n">
+      <c r="N31" t="n">
         <v>99720</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.5657894736842105</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.06578947368421052</v>
       </c>
       <c r="O31" t="n">
         <v>2095411648245.33</v>
@@ -2338,34 +2334,34 @@
         <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F32" t="n">
-        <v>32</v>
+        <v>0.5</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>157</v>
       </c>
       <c r="H32" t="n">
-        <v>157</v>
+        <v>79.08731663765079</v>
       </c>
       <c r="I32" t="n">
-        <v>79.08731663765079</v>
+        <v>0.8125</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="L32" t="n">
+        <v>33</v>
+      </c>
+      <c r="M32" t="n">
         <v>14533511</v>
       </c>
-      <c r="K32" t="n">
+      <c r="N32" t="n">
         <v>1240192</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.1875</v>
       </c>
       <c r="O32" t="n">
         <v>41730797293.55034</v>
@@ -2398,34 +2394,34 @@
         <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F33" t="n">
-        <v>66</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2272727272727273</v>
+        <v>2842</v>
       </c>
       <c r="H33" t="n">
-        <v>2842</v>
+        <v>79.81109882204171</v>
       </c>
       <c r="I33" t="n">
-        <v>79.81109882204171</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="J33" t="n">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1515151515151515</v>
+      </c>
+      <c r="L33" t="n">
+        <v>974</v>
+      </c>
+      <c r="M33" t="n">
         <v>23515934</v>
       </c>
-      <c r="K33" t="n">
+      <c r="N33" t="n">
         <v>799380</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.5303030303030303</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.1515151515151515</v>
       </c>
       <c r="O33" t="n">
         <v>37849298116.92565</v>
@@ -2458,34 +2454,34 @@
         <v>18</v>
       </c>
       <c r="E34" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F34" t="n">
-        <v>67</v>
+        <v>0.5522388059701493</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5522388059701493</v>
+        <v>578</v>
       </c>
       <c r="H34" t="n">
-        <v>578</v>
+        <v>78.5366440291661</v>
       </c>
       <c r="I34" t="n">
-        <v>78.5366440291661</v>
+        <v>0.8059701492537313</v>
       </c>
       <c r="J34" t="n">
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.08955223880597014</v>
+      </c>
+      <c r="L34" t="n">
+        <v>14</v>
+      </c>
+      <c r="M34" t="n">
         <v>29179952</v>
       </c>
-      <c r="K34" t="n">
+      <c r="N34" t="n">
         <v>329847</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.8059701492537313</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.1044776119402985</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.08955223880597014</v>
       </c>
       <c r="O34" t="n">
         <v>840061946293.734</v>
@@ -2518,34 +2514,34 @@
         <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F35" t="n">
-        <v>39</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="G35" t="n">
-        <v>0.282051282051282</v>
+        <v>643</v>
       </c>
       <c r="H35" t="n">
-        <v>643</v>
+        <v>82.10779893393097</v>
       </c>
       <c r="I35" t="n">
-        <v>82.10779893393097</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="J35" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="L35" t="n">
+        <v>248</v>
+      </c>
+      <c r="M35" t="n">
         <v>17078839</v>
       </c>
-      <c r="K35" t="n">
+      <c r="N35" t="n">
         <v>1266700</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.2051282051282051</v>
       </c>
       <c r="O35" t="n">
         <v>25868632546.72506</v>
@@ -2578,34 +2574,34 @@
         <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F36" t="n">
-        <v>63</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3015873015873016</v>
+        <v>2291</v>
       </c>
       <c r="H36" t="n">
-        <v>2291</v>
+        <v>77.4542206927327</v>
       </c>
       <c r="I36" t="n">
-        <v>77.4542206927327</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J36" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>455</v>
+      </c>
+      <c r="M36" t="n">
         <v>170123740</v>
       </c>
-      <c r="K36" t="n">
+      <c r="N36" t="n">
         <v>923768</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>1011824012183.393</v>
@@ -2638,34 +2634,34 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F37" t="n">
-        <v>49</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3673469387755102</v>
+        <v>4052</v>
       </c>
       <c r="H37" t="n">
-        <v>4052</v>
+        <v>76.64926035521052</v>
       </c>
       <c r="I37" t="n">
-        <v>76.64926035521052</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="J37" t="n">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.163265306122449</v>
+      </c>
+      <c r="L37" t="n">
+        <v>28</v>
+      </c>
+      <c r="M37" t="n">
         <v>5727707</v>
       </c>
-      <c r="K37" t="n">
+      <c r="N37" t="n">
         <v>130370</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.3877551020408163</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.4489795918367347</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.163265306122449</v>
       </c>
       <c r="O37" t="n">
         <v>36370199979.50298</v>
@@ -2698,34 +2694,34 @@
         <v>19</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F38" t="n">
-        <v>39</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7692307692307693</v>
+        <v>21</v>
       </c>
       <c r="H38" t="n">
-        <v>21</v>
+        <v>70.13920512898166</v>
       </c>
       <c r="I38" t="n">
-        <v>70.13920512898166</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="J38" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
         <v>4327944</v>
       </c>
-      <c r="K38" t="n">
+      <c r="N38" t="n">
         <v>267710</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.05128205128205128</v>
       </c>
       <c r="O38" t="n">
         <v>196487177065.2823</v>
@@ -2758,34 +2754,34 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="F39" t="n">
-        <v>146</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03424657534246575</v>
+        <v>17260</v>
       </c>
       <c r="H39" t="n">
-        <v>17260</v>
+        <v>77.83522788225771</v>
       </c>
       <c r="I39" t="n">
-        <v>77.83522788225771</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="J39" t="n">
+        <v>0.2465753424657534</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2776</v>
+      </c>
+      <c r="M39" t="n">
         <v>190291129</v>
       </c>
-      <c r="K39" t="n">
+      <c r="N39" t="n">
         <v>796095</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.7397260273972602</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.2465753424657534</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.0136986301369863</v>
       </c>
       <c r="O39" t="n">
         <v>962319016103.1498</v>
@@ -2818,34 +2814,34 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F40" t="n">
-        <v>41</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3902439024390244</v>
+        <v>263</v>
       </c>
       <c r="H40" t="n">
-        <v>263</v>
+        <v>78.40192484983854</v>
       </c>
       <c r="I40" t="n">
-        <v>78.40192484983854</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="J40" t="n">
+        <v>0.1707317073170732</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="L40" t="n">
+        <v>14</v>
+      </c>
+      <c r="M40" t="n">
         <v>3510045</v>
       </c>
-      <c r="K40" t="n">
+      <c r="N40" t="n">
         <v>75420</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.7317073170731707</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.1707317073170732</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.0975609756097561</v>
       </c>
       <c r="O40" t="n">
         <v>122048477250.0477</v>
@@ -2878,34 +2874,34 @@
         <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F41" t="n">
-        <v>85</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1764705882352941</v>
+        <v>4584</v>
       </c>
       <c r="H41" t="n">
-        <v>4584</v>
+        <v>76.8519365945825</v>
       </c>
       <c r="I41" t="n">
-        <v>76.8519365945825</v>
+        <v>0.7764705882352941</v>
       </c>
       <c r="J41" t="n">
+        <v>0.1647058823529412</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="L41" t="n">
+        <v>308</v>
+      </c>
+      <c r="M41" t="n">
         <v>29549517</v>
       </c>
-      <c r="K41" t="n">
+      <c r="N41" t="n">
         <v>1285216</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.7764705882352941</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.1647058823529412</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.05882352941176471</v>
       </c>
       <c r="O41" t="n">
         <v>394487255737.7155</v>
@@ -2938,34 +2934,34 @@
         <v>18</v>
       </c>
       <c r="E42" t="n">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="F42" t="n">
-        <v>396</v>
+        <v>0.1641414141414141</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1641414141414141</v>
+        <v>35276</v>
       </c>
       <c r="H42" t="n">
-        <v>35276</v>
+        <v>76.51887324967578</v>
       </c>
       <c r="I42" t="n">
-        <v>76.51887324967578</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="J42" t="n">
+        <v>0.5984848484848485</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.01515151515151515</v>
+      </c>
+      <c r="L42" t="n">
+        <v>907</v>
+      </c>
+      <c r="M42" t="n">
         <v>103775002</v>
       </c>
-      <c r="K42" t="n">
+      <c r="N42" t="n">
         <v>300000</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.3863636363636364</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.5984848484848485</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.01515151515151515</v>
       </c>
       <c r="O42" t="n">
         <v>864537266115.1071</v>
@@ -2998,34 +2994,34 @@
         <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F43" t="n">
-        <v>40</v>
+        <v>0.675</v>
       </c>
       <c r="G43" t="n">
-        <v>0.675</v>
+        <v>191</v>
       </c>
       <c r="H43" t="n">
-        <v>191</v>
+        <v>81.38157004244209</v>
       </c>
       <c r="I43" t="n">
-        <v>81.38157004244209</v>
+        <v>0.5</v>
       </c>
       <c r="J43" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="L43" t="n">
+        <v>54</v>
+      </c>
+      <c r="M43" t="n">
         <v>6541591</v>
       </c>
-      <c r="K43" t="n">
+      <c r="N43" t="n">
         <v>406752</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.275</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.225</v>
       </c>
       <c r="O43" t="n">
         <v>85927273070.08589</v>
@@ -3058,34 +3054,34 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F44" t="n">
-        <v>33</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1818181818181818</v>
+        <v>808</v>
       </c>
       <c r="H44" t="n">
-        <v>808</v>
+        <v>82.59951497393159</v>
       </c>
       <c r="I44" t="n">
-        <v>82.59951497393159</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="J44" t="n">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1212121212121212</v>
+      </c>
+      <c r="L44" t="n">
+        <v>230</v>
+      </c>
+      <c r="M44" t="n">
         <v>11689696</v>
       </c>
-      <c r="K44" t="n">
+      <c r="N44" t="n">
         <v>26338</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.1212121212121212</v>
       </c>
       <c r="O44" t="n">
         <v>24372698827.02837</v>
@@ -3118,34 +3114,34 @@
         <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F45" t="n">
-        <v>44</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2954545454545455</v>
+        <v>1448</v>
       </c>
       <c r="H45" t="n">
-        <v>1448</v>
+        <v>77.70074144203785</v>
       </c>
       <c r="I45" t="n">
-        <v>77.70074144203785</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="J45" t="n">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1136363636363636</v>
+      </c>
+      <c r="L45" t="n">
+        <v>356</v>
+      </c>
+      <c r="M45" t="n">
         <v>34206710</v>
       </c>
-      <c r="K45" t="n">
+      <c r="N45" t="n">
         <v>1861484</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.1136363636363636</v>
       </c>
       <c r="O45" t="n">
         <v>180303372484.1114</v>
@@ -3178,34 +3174,34 @@
         <v>6</v>
       </c>
       <c r="E46" t="n">
+        <v>25</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G46" t="n">
+        <v>287</v>
+      </c>
+      <c r="H46" t="n">
+        <v>77.01233730374314</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L46" t="n">
         <v>11</v>
       </c>
-      <c r="F46" t="n">
-        <v>25</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="H46" t="n">
-        <v>287</v>
-      </c>
-      <c r="I46" t="n">
-        <v>77.01233730374314</v>
-      </c>
-      <c r="J46" t="n">
+      <c r="M46" t="n">
         <v>12969606</v>
       </c>
-      <c r="K46" t="n">
+      <c r="N46" t="n">
         <v>196722</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.12</v>
       </c>
       <c r="O46" t="n">
         <v>50089034022.66487</v>
@@ -3238,34 +3234,34 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F47" t="n">
-        <v>42</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2619047619047619</v>
+        <v>1177</v>
       </c>
       <c r="H47" t="n">
-        <v>1177</v>
+        <v>74.73214030416496</v>
       </c>
       <c r="I47" t="n">
-        <v>74.73214030416496</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="J47" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.119047619047619</v>
+      </c>
+      <c r="L47" t="n">
+        <v>27</v>
+      </c>
+      <c r="M47" t="n">
         <v>6090646</v>
       </c>
-      <c r="K47" t="n">
+      <c r="N47" t="n">
         <v>21041</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.119047619047619</v>
       </c>
       <c r="O47" t="n">
         <v>53793014334.6605</v>
@@ -3298,34 +3294,34 @@
         <v>5</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F48" t="n">
-        <v>27</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4444444444444444</v>
+        <v>381</v>
       </c>
       <c r="H48" t="n">
-        <v>381</v>
+        <v>77.1412200110138</v>
       </c>
       <c r="I48" t="n">
-        <v>77.1412200110138</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="J48" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="L48" t="n">
+        <v>52</v>
+      </c>
+      <c r="M48" t="n">
         <v>10975648</v>
       </c>
-      <c r="K48" t="n">
+      <c r="N48" t="n">
         <v>1259200</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.1851851851851852</v>
       </c>
       <c r="O48" t="n">
         <v>25009999667.22137</v>
@@ -3358,34 +3354,34 @@
         <v>18</v>
       </c>
       <c r="E49" t="n">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="F49" t="n">
-        <v>125</v>
+        <v>0.296</v>
       </c>
       <c r="G49" t="n">
-        <v>0.296</v>
+        <v>4606</v>
       </c>
       <c r="H49" t="n">
-        <v>4606</v>
+        <v>74.78195875010532</v>
       </c>
       <c r="I49" t="n">
-        <v>74.78195875010532</v>
+        <v>0.6</v>
       </c>
       <c r="J49" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="L49" t="n">
+        <v>214</v>
+      </c>
+      <c r="M49" t="n">
         <v>67091089</v>
       </c>
-      <c r="K49" t="n">
+      <c r="N49" t="n">
         <v>513120</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.312</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.08799999999999999</v>
       </c>
       <c r="O49" t="n">
         <v>1213518453585.649</v>
@@ -3418,34 +3414,34 @@
         <v>9</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F50" t="n">
-        <v>65</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1076923076923077</v>
+        <v>1083</v>
       </c>
       <c r="H50" t="n">
-        <v>1083</v>
+        <v>73.68362339929996</v>
       </c>
       <c r="I50" t="n">
-        <v>73.68362339929996</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="J50" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="L50" t="n">
+        <v>59</v>
+      </c>
+      <c r="M50" t="n">
         <v>79749461</v>
       </c>
-      <c r="K50" t="n">
+      <c r="N50" t="n">
         <v>783562</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.7076923076923077</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="O50" t="n">
         <v>2221236632579.008</v>
@@ -3478,34 +3474,34 @@
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F51" t="n">
-        <v>57</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3157894736842105</v>
+        <v>875</v>
       </c>
       <c r="H51" t="n">
-        <v>875</v>
+        <v>77.47232790347678</v>
       </c>
       <c r="I51" t="n">
-        <v>77.47232790347678</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="J51" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="L51" t="n">
+        <v>144</v>
+      </c>
+      <c r="M51" t="n">
         <v>43601796</v>
       </c>
-      <c r="K51" t="n">
+      <c r="N51" t="n">
         <v>947300</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.1052631578947368</v>
       </c>
       <c r="O51" t="n">
         <v>136156799903.8565</v>
@@ -3538,34 +3534,34 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>256</v>
+        <v>763</v>
       </c>
       <c r="F52" t="n">
-        <v>763</v>
+        <v>0.3355176933158585</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3355176933158585</v>
+        <v>10975</v>
       </c>
       <c r="H52" t="n">
-        <v>10975</v>
+        <v>73.48087378019694</v>
       </c>
       <c r="I52" t="n">
-        <v>73.48087378019694</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="J52" t="n">
+        <v>0.6710353866317169</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.127129750982962</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1316</v>
+      </c>
+      <c r="M52" t="n">
         <v>313847465</v>
       </c>
-      <c r="K52" t="n">
+      <c r="N52" t="n">
         <v>9826675</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.2018348623853211</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.6710353866317169</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.127129750982962</v>
       </c>
       <c r="O52" t="n">
         <v>19694480889200.06</v>
@@ -3598,34 +3594,34 @@
         <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F53" t="n">
-        <v>38</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2894736842105263</v>
+        <v>30471</v>
       </c>
       <c r="H53" t="n">
-        <v>30471</v>
+        <v>74.2928118440381</v>
       </c>
       <c r="I53" t="n">
-        <v>74.2928118440381</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="J53" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="L53" t="n">
+        <v>8</v>
+      </c>
+      <c r="M53" t="n">
         <v>28047938</v>
       </c>
-      <c r="K53" t="n">
+      <c r="N53" t="n">
         <v>912050</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.868421052631579</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.02631578947368421</v>
       </c>
       <c r="O53" t="n">
         <v>9342805174552.254</v>
@@ -3658,34 +3654,34 @@
         <v>18</v>
       </c>
       <c r="E54" t="n">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="F54" t="n">
-        <v>203</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09852216748768473</v>
+        <v>14007</v>
       </c>
       <c r="H54" t="n">
-        <v>14007</v>
+        <v>77.0920244956795</v>
       </c>
       <c r="I54" t="n">
-        <v>77.0920244956795</v>
+        <v>0.4532019704433498</v>
       </c>
       <c r="J54" t="n">
+        <v>0.5123152709359606</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="L54" t="n">
+        <v>691</v>
+      </c>
+      <c r="M54" t="n">
         <v>91519289</v>
       </c>
-      <c r="K54" t="n">
+      <c r="N54" t="n">
         <v>331210</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.4532019704433498</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.5123152709359606</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.03448275862068965</v>
       </c>
       <c r="O54" t="n">
         <v>682087459686.2198</v>
@@ -3718,34 +3714,34 @@
         <v>20</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F55" t="n">
-        <v>19</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4736842105263158</v>
+        <v>70</v>
       </c>
       <c r="H55" t="n">
-        <v>70</v>
+        <v>69.87713866376097</v>
       </c>
       <c r="I55" t="n">
-        <v>69.87713866376097</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="J55" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>11</v>
+      </c>
+      <c r="M55" t="n">
         <v>227574</v>
       </c>
-      <c r="K55" t="n">
+      <c r="N55" t="n">
         <v>12189</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.1578947368421053</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8421052631578947</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
       </c>
       <c r="O55" t="n">
         <v>890341687.8707701</v>
@@ -3778,34 +3774,34 @@
         <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="F56" t="n">
-        <v>78</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1923076923076923</v>
+        <v>1093</v>
       </c>
       <c r="H56" t="n">
-        <v>1093</v>
+        <v>76.61157135890736</v>
       </c>
       <c r="I56" t="n">
-        <v>76.61157135890736</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="J56" t="n">
+        <v>0.3717948717948718</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="L56" t="n">
+        <v>158</v>
+      </c>
+      <c r="M56" t="n">
         <v>48810427</v>
       </c>
-      <c r="K56" t="n">
+      <c r="N56" t="n">
         <v>1219090</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.4487179487179487</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.3717948717948718</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.1794871794871795</v>
       </c>
       <c r="O56" t="n">
         <v>727581783626.8862</v>
@@ -3838,34 +3834,34 @@
         <v>19</v>
       </c>
       <c r="E57" t="n">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="F57" t="n">
-        <v>158</v>
+        <v>0.4746835443037974</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4746835443037974</v>
+        <v>1034</v>
       </c>
       <c r="H57" t="n">
-        <v>1034</v>
+        <v>73.08915738912171</v>
       </c>
       <c r="I57" t="n">
-        <v>73.08915738912171</v>
+        <v>0.3227848101265823</v>
       </c>
       <c r="J57" t="n">
+        <v>0.4810126582278481</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.1962025316455696</v>
+      </c>
+      <c r="L57" t="n">
+        <v>71</v>
+      </c>
+      <c r="M57" t="n">
         <v>22015576</v>
       </c>
-      <c r="K57" t="n">
+      <c r="N57" t="n">
         <v>7741220</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.3227848101265823</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.4810126582278481</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.1962025316455696</v>
       </c>
       <c r="O57" t="n">
         <v>1216036045025.535</v>
@@ -3898,34 +3894,34 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F58" t="n">
-        <v>87</v>
+        <v>0.632183908045977</v>
       </c>
       <c r="G58" t="n">
-        <v>0.632183908045977</v>
+        <v>205</v>
       </c>
       <c r="H58" t="n">
-        <v>205</v>
+        <v>75.71434983139541</v>
       </c>
       <c r="I58" t="n">
-        <v>75.71434983139541</v>
+        <v>0.4022988505747127</v>
       </c>
       <c r="J58" t="n">
+        <v>0.3908045977011494</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="L58" t="n">
+        <v>74</v>
+      </c>
+      <c r="M58" t="n">
         <v>34300083</v>
       </c>
-      <c r="K58" t="n">
+      <c r="N58" t="n">
         <v>9984670</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.4022988505747127</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.3908045977011494</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.2068965517241379</v>
       </c>
       <c r="O58" t="n">
         <v>1767239152250.122</v>
@@ -3958,34 +3954,34 @@
         <v>14</v>
       </c>
       <c r="E59" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F59" t="n">
-        <v>40</v>
+        <v>0.55</v>
       </c>
       <c r="G59" t="n">
-        <v>0.55</v>
+        <v>1137</v>
       </c>
       <c r="H59" t="n">
-        <v>1137</v>
+        <v>72.83918889384444</v>
       </c>
       <c r="I59" t="n">
-        <v>72.83918889384444</v>
+        <v>0.25</v>
       </c>
       <c r="J59" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4</v>
+      </c>
+      <c r="M59" t="n">
         <v>7655628</v>
       </c>
-      <c r="K59" t="n">
+      <c r="N59" t="n">
         <v>41277</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
       </c>
       <c r="O59" t="n">
         <v>569313375383.7972</v>
@@ -4018,34 +4014,34 @@
         <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F60" t="n">
-        <v>49</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2653061224489796</v>
+        <v>874</v>
       </c>
       <c r="H60" t="n">
-        <v>874</v>
+        <v>81.94444603342545</v>
       </c>
       <c r="I60" t="n">
-        <v>81.94444603342545</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.1020408163265306</v>
+      </c>
+      <c r="L60" t="n">
+        <v>278</v>
+      </c>
+      <c r="M60" t="n">
         <v>18056072</v>
       </c>
-      <c r="K60" t="n">
+      <c r="N60" t="n">
         <v>1246700</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.8979591836734694</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.1020408163265306</v>
       </c>
       <c r="O60" t="n">
         <v>213593693948.5995</v>
@@ -4078,34 +4074,34 @@
         <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F61" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G61" t="n">
         <v>9</v>
       </c>
-      <c r="G61" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="H61" t="n">
-        <v>9</v>
+        <v>68.73973996617572</v>
       </c>
       <c r="I61" t="n">
-        <v>68.73973996617572</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
         <v>89018</v>
       </c>
-      <c r="K61" t="n">
+      <c r="N61" t="n">
         <v>404</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
       </c>
       <c r="O61" t="n">
         <v>1970078622.337142</v>
@@ -4138,34 +4134,34 @@
         <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F62" t="n">
-        <v>45</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5111111111111111</v>
+        <v>426</v>
       </c>
       <c r="H62" t="n">
-        <v>426</v>
+        <v>82.22823269702414</v>
       </c>
       <c r="I62" t="n">
-        <v>82.22823269702414</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="J62" t="n">
+        <v>0.1555555555555556</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="L62" t="n">
+        <v>130</v>
+      </c>
+      <c r="M62" t="n">
         <v>10557259</v>
       </c>
-      <c r="K62" t="n">
+      <c r="N62" t="n">
         <v>27830</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.7111111111111111</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="O62" t="n">
         <v>8610656036.767838</v>
@@ -4198,34 +4194,32 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>60.22218596277185</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
         <v>1</v>
       </c>
-      <c r="F63" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H63" t="n">
-        <v>4</v>
-      </c>
-      <c r="I63" t="n">
-        <v>60.22218596277185</v>
-      </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
         <v>69080</v>
       </c>
-      <c r="K63" t="n">
+      <c r="N63" t="n">
         <v>54</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
       </c>
       <c r="O63" t="n">
         <v>5127247804.075074</v>
@@ -4258,34 +4252,34 @@
         <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F64" t="n">
-        <v>59</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4067796610169492</v>
+        <v>729</v>
       </c>
       <c r="H64" t="n">
-        <v>729</v>
+        <v>76.46547113350553</v>
       </c>
       <c r="I64" t="n">
-        <v>76.46547113350553</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="J64" t="n">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.2203389830508475</v>
+      </c>
+      <c r="L64" t="n">
+        <v>245</v>
+      </c>
+      <c r="M64" t="n">
         <v>17067369</v>
       </c>
-      <c r="K64" t="n">
+      <c r="N64" t="n">
         <v>756102</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.5084745762711864</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.2711864406779661</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0.2203389830508475</v>
       </c>
       <c r="O64" t="n">
         <v>439773975360.6981</v>
@@ -4318,34 +4312,34 @@
         <v>6</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F65" t="n">
-        <v>16</v>
+        <v>0.125</v>
       </c>
       <c r="G65" t="n">
-        <v>0.125</v>
+        <v>245</v>
       </c>
       <c r="H65" t="n">
-        <v>245</v>
+        <v>85.39579912488169</v>
       </c>
       <c r="I65" t="n">
-        <v>85.39579912488169</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>83</v>
+      </c>
+      <c r="M65" t="n">
         <v>21952093</v>
       </c>
-      <c r="K65" t="n">
+      <c r="N65" t="n">
         <v>322463</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
       </c>
       <c r="O65" t="n">
         <v>121593968671.2727</v>
@@ -4378,34 +4372,34 @@
         <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>7</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5714285714285714</v>
+        <v>14</v>
       </c>
       <c r="H66" t="n">
-        <v>14</v>
+        <v>83.82349326311478</v>
       </c>
       <c r="I66" t="n">
-        <v>83.82349326311478</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J66" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8</v>
+      </c>
+      <c r="M66" t="n">
         <v>737284</v>
       </c>
-      <c r="K66" t="n">
+      <c r="N66" t="n">
         <v>2235</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>2437236581.075448</v>
@@ -4438,34 +4432,34 @@
         <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F67" t="n">
-        <v>14</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5714285714285714</v>
+        <v>227</v>
       </c>
       <c r="H67" t="n">
-        <v>227</v>
+        <v>72.9370796635497</v>
       </c>
       <c r="I67" t="n">
-        <v>72.9370796635497</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J67" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L67" t="n">
+        <v>13</v>
+      </c>
+      <c r="M67" t="n">
         <v>774389</v>
       </c>
-      <c r="K67" t="n">
+      <c r="N67" t="n">
         <v>23200</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.4285714285714285</v>
       </c>
       <c r="O67" t="n">
         <v>4780328219.853846</v>
@@ -4498,34 +4492,34 @@
         <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>98</v>
       </c>
       <c r="H68" t="n">
-        <v>98</v>
+        <v>73.81589395408692</v>
       </c>
       <c r="I68" t="n">
-        <v>73.81589395408692</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>94</v>
+      </c>
+      <c r="M68" t="n">
         <v>73126</v>
       </c>
-      <c r="K68" t="n">
+      <c r="N68" t="n">
         <v>751</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0</v>
       </c>
       <c r="O68" t="n">
         <v>838587644.2689821</v>
@@ -4558,34 +4552,34 @@
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F69" t="n">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1105</v>
+      </c>
+      <c r="H69" t="n">
+        <v>77.06921970280847</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.1351351351351351</v>
+      </c>
+      <c r="L69" t="n">
         <v>37</v>
       </c>
-      <c r="G69" t="n">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1105</v>
-      </c>
-      <c r="I69" t="n">
-        <v>77.06921970280847</v>
-      </c>
-      <c r="J69" t="n">
+      <c r="M69" t="n">
         <v>15223680</v>
       </c>
-      <c r="K69" t="n">
+      <c r="N69" t="n">
         <v>283561</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.8648648648648649</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0.1351351351351351</v>
       </c>
       <c r="O69" t="n">
         <v>193000282542.9086</v>
@@ -4618,34 +4612,34 @@
         <v>13</v>
       </c>
       <c r="E70" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F70" t="n">
-        <v>69</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2028985507246377</v>
+        <v>15600</v>
       </c>
       <c r="H70" t="n">
-        <v>15600</v>
+        <v>77.33314988802411</v>
       </c>
       <c r="I70" t="n">
-        <v>77.33314988802411</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="J70" t="n">
+        <v>0.4202898550724637</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="L70" t="n">
+        <v>68</v>
+      </c>
+      <c r="M70" t="n">
         <v>47042984</v>
       </c>
-      <c r="K70" t="n">
+      <c r="N70" t="n">
         <v>505370</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.3623188405797101</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.4202898550724637</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.2173913043478261</v>
       </c>
       <c r="O70" t="n">
         <v>1816522635964.606</v>
@@ -4678,34 +4672,34 @@
         <v>20</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F71" t="n">
-        <v>35</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2285714285714286</v>
+        <v>221</v>
       </c>
       <c r="H71" t="n">
-        <v>221</v>
+        <v>78.16187029850384</v>
       </c>
       <c r="I71" t="n">
-        <v>78.16187029850384</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J71" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="L71" t="n">
+        <v>55</v>
+      </c>
+      <c r="M71" t="n">
         <v>890057</v>
       </c>
-      <c r="K71" t="n">
+      <c r="N71" t="n">
         <v>18274</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.05714285714285714</v>
       </c>
       <c r="O71" t="n">
         <v>11766785186.52906</v>
@@ -4738,34 +4732,34 @@
         <v>14</v>
       </c>
       <c r="E72" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F72" t="n">
-        <v>38</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4210526315789473</v>
+        <v>478</v>
       </c>
       <c r="H72" t="n">
-        <v>478</v>
+        <v>72.76344504811442</v>
       </c>
       <c r="I72" t="n">
-        <v>72.76344504811442</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="J72" t="n">
+        <v>0.6052631578947368</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>17</v>
+      </c>
+      <c r="M72" t="n">
         <v>8219743</v>
       </c>
-      <c r="K72" t="n">
+      <c r="N72" t="n">
         <v>83871</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.3947368421052632</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.6052631578947368</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
       </c>
       <c r="O72" t="n">
         <v>479269447602.2963</v>
@@ -4798,34 +4792,34 @@
         <v>14</v>
       </c>
       <c r="E73" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F73" t="n">
-        <v>47</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4680851063829787</v>
+        <v>4753</v>
       </c>
       <c r="H73" t="n">
-        <v>4753</v>
+        <v>76.0379782719364</v>
       </c>
       <c r="I73" t="n">
-        <v>76.0379782719364</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="J73" t="n">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1129</v>
+      </c>
+      <c r="M73" t="n">
         <v>10438353</v>
       </c>
-      <c r="K73" t="n">
+      <c r="N73" t="n">
         <v>30528</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.2765957446808511</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
       </c>
       <c r="O73" t="n">
         <v>575227518818.3551</v>
@@ -4858,34 +4852,34 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F74" t="n">
-        <v>16</v>
+        <v>0.625</v>
       </c>
       <c r="G74" t="n">
-        <v>0.625</v>
+        <v>64</v>
       </c>
       <c r="H74" t="n">
-        <v>64</v>
+        <v>73.70936464172058</v>
       </c>
       <c r="I74" t="n">
-        <v>73.70936464172058</v>
+        <v>0.25</v>
       </c>
       <c r="J74" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
         <v>327719</v>
       </c>
-      <c r="K74" t="n">
+      <c r="N74" t="n">
         <v>22966</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
       </c>
       <c r="O74" t="n">
         <v>2715897214.738158</v>
@@ -4918,34 +4912,32 @@
         <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>15</v>
       </c>
       <c r="H75" t="n">
-        <v>15</v>
+        <v>71.38570856425557</v>
       </c>
       <c r="I75" t="n">
-        <v>71.38570856425557</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
         <v>5543453</v>
       </c>
-      <c r="K75" t="n">
+      <c r="N75" t="n">
         <v>43094</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
       </c>
       <c r="O75" t="n">
         <v>315868487765.308</v>
@@ -4981,31 +4973,29 @@
         <v>3</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>59.53387240423027</v>
       </c>
       <c r="I76" t="n">
-        <v>59.53387240423027</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J76" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
         <v>5262930</v>
       </c>
-      <c r="K76" t="n">
+      <c r="N76" t="n">
         <v>338145</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
       </c>
       <c r="O76" t="n">
         <v>259548343852.3497</v>
@@ -5038,34 +5028,34 @@
         <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F77" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="H77" t="n">
-        <v>995</v>
+        <v>73.08247074280357</v>
       </c>
       <c r="I77" t="n">
-        <v>73.08247074280357</v>
+        <v>0.5</v>
       </c>
       <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>167</v>
+      </c>
+      <c r="M77" t="n">
         <v>83688164</v>
       </c>
-      <c r="K77" t="n">
+      <c r="N77" t="n">
         <v>1001450</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
       </c>
       <c r="O77" t="n">
         <v>1112540724106.212</v>
@@ -5098,34 +5088,34 @@
         <v>13</v>
       </c>
       <c r="E78" t="n">
+        <v>22</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="G78" t="n">
+        <v>45</v>
+      </c>
+      <c r="H78" t="n">
+        <v>80.06053127548964</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L78" t="n">
         <v>10</v>
       </c>
-      <c r="F78" t="n">
-        <v>22</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="H78" t="n">
-        <v>45</v>
-      </c>
-      <c r="I78" t="n">
-        <v>80.06053127548964</v>
-      </c>
-      <c r="J78" t="n">
+      <c r="M78" t="n">
         <v>3002859</v>
       </c>
-      <c r="K78" t="n">
+      <c r="N78" t="n">
         <v>28748</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.04545454545454546</v>
       </c>
       <c r="O78" t="n">
         <v>37321146781.19435</v>
@@ -5158,34 +5148,34 @@
         <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F79" t="n">
-        <v>60</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3833333333333334</v>
+        <v>1163</v>
       </c>
       <c r="H79" t="n">
-        <v>1163</v>
+        <v>79.64817065993402</v>
       </c>
       <c r="I79" t="n">
-        <v>79.64817065993402</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="J79" t="n">
+        <v>0.1166666666666667</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>93</v>
+      </c>
+      <c r="M79" t="n">
         <v>10290003</v>
       </c>
-      <c r="K79" t="n">
+      <c r="N79" t="n">
         <v>1098581</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.6833333333333333</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.1166666666666667</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.2</v>
       </c>
       <c r="O79" t="n">
         <v>92023330751.52036</v>
@@ -5218,34 +5208,34 @@
         <v>14</v>
       </c>
       <c r="E80" t="n">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="F80" t="n">
-        <v>133</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2932330827067669</v>
+        <v>28255</v>
       </c>
       <c r="H80" t="n">
-        <v>28255</v>
+        <v>75.18602459244245</v>
       </c>
       <c r="I80" t="n">
-        <v>75.18602459244245</v>
+        <v>0.3609022556390977</v>
       </c>
       <c r="J80" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.06015037593984962</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4780</v>
+      </c>
+      <c r="M80" t="n">
         <v>65630692</v>
       </c>
-      <c r="K80" t="n">
+      <c r="N80" t="n">
         <v>643801</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.3609022556390977</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.06015037593984962</v>
       </c>
       <c r="O80" t="n">
         <v>3003282470752.855</v>
@@ -5278,34 +5268,34 @@
         <v>12</v>
       </c>
       <c r="E81" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F81" t="n">
-        <v>39</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3076923076923077</v>
+        <v>171</v>
       </c>
       <c r="H81" t="n">
-        <v>171</v>
+        <v>79.06860557421537</v>
       </c>
       <c r="I81" t="n">
-        <v>79.06860557421537</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="J81" t="n">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="L81" t="n">
+        <v>5</v>
+      </c>
+      <c r="M81" t="n">
         <v>7037935</v>
       </c>
-      <c r="K81" t="n">
+      <c r="N81" t="n">
         <v>110879</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.5128205128205128</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.1282051282051282</v>
       </c>
       <c r="O81" t="n">
         <v>151298492676.9196</v>
@@ -5338,34 +5328,34 @@
         <v>12</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F82" t="n">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>61</v>
       </c>
       <c r="H82" t="n">
-        <v>61</v>
+        <v>78.18886054059132</v>
       </c>
       <c r="I82" t="n">
-        <v>78.18886054059132</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J82" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>43</v>
+      </c>
+      <c r="M82" t="n">
         <v>9542883</v>
       </c>
-      <c r="K82" t="n">
+      <c r="N82" t="n">
         <v>207600</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
       </c>
       <c r="O82" t="n">
         <v>177205333497.5352</v>
@@ -5398,34 +5388,34 @@
         <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="G83" t="n">
+        <v>25</v>
+      </c>
+      <c r="H83" t="n">
+        <v>75.14547194100076</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="J83" t="n">
         <v>0.6363636363636364</v>
       </c>
-      <c r="H83" t="n">
-        <v>25</v>
-      </c>
-      <c r="I83" t="n">
-        <v>75.14547194100076</v>
-      </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
         <v>162178</v>
       </c>
-      <c r="K83" t="n">
+      <c r="N83" t="n">
         <v>616</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.09090909090909091</v>
       </c>
       <c r="O83" t="n">
         <v>2699421953.240792</v>
@@ -5458,34 +5448,34 @@
         <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="F84" t="n">
-        <v>63</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="G84" t="n">
-        <v>0.2380952380952381</v>
+        <v>2379</v>
       </c>
       <c r="H84" t="n">
-        <v>2379</v>
+        <v>79.0110481103161</v>
       </c>
       <c r="I84" t="n">
-        <v>79.0110481103161</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="J84" t="n">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L84" t="n">
+        <v>313</v>
+      </c>
+      <c r="M84" t="n">
         <v>22585517</v>
       </c>
-      <c r="K84" t="n">
+      <c r="N84" t="n">
         <v>587041</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.126984126984127</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.7301587301587301</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.1428571428571428</v>
       </c>
       <c r="O84" t="n">
         <v>41555662305.85152</v>
@@ -5518,34 +5508,34 @@
         <v>17</v>
       </c>
       <c r="E85" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F85" t="n">
-        <v>31</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4516129032258064</v>
+        <v>140</v>
       </c>
       <c r="H85" t="n">
-        <v>140</v>
+        <v>65.62918486874793</v>
       </c>
       <c r="I85" t="n">
-        <v>65.62918486874793</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="J85" t="n">
+        <v>0.7741935483870968</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
         <v>7153519</v>
       </c>
-      <c r="K85" t="n">
+      <c r="N85" t="n">
         <v>1104</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.7741935483870968</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.03225806451612903</v>
       </c>
       <c r="O85" t="n">
         <v>441748579244.2199</v>
@@ -5578,34 +5568,32 @@
         <v>15</v>
       </c>
       <c r="E86" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G86" t="n">
+        <v>34</v>
+      </c>
+      <c r="H86" t="n">
+        <v>55.15518220682847</v>
+      </c>
+      <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="F86" t="n">
-        <v>3</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H86" t="n">
-        <v>34</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55.15518220682847</v>
-      </c>
       <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
         <v>313183</v>
       </c>
-      <c r="K86" t="n">
+      <c r="N86" t="n">
         <v>103000</v>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
       </c>
       <c r="O86" t="n">
         <v>19019302684.59373</v>
@@ -5638,34 +5626,34 @@
         <v>17</v>
       </c>
       <c r="E87" t="n">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="F87" t="n">
-        <v>163</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1595092024539877</v>
+        <v>3423</v>
       </c>
       <c r="H87" t="n">
-        <v>3423</v>
+        <v>78.44443276570819</v>
       </c>
       <c r="I87" t="n">
-        <v>78.44443276570819</v>
+        <v>0.2392638036809816</v>
       </c>
       <c r="J87" t="n">
+        <v>0.754601226993865</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.006134969325153374</v>
+      </c>
+      <c r="L87" t="n">
+        <v>840</v>
+      </c>
+      <c r="M87" t="n">
         <v>127368088</v>
       </c>
-      <c r="K87" t="n">
+      <c r="N87" t="n">
         <v>377915</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.2392638036809816</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.754601226993865</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.006134969325153374</v>
       </c>
       <c r="O87" t="n">
         <v>5216340673512.644</v>
@@ -5698,34 +5686,34 @@
         <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F88" t="n">
-        <v>80</v>
+        <v>0.3875</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3875</v>
+        <v>3974</v>
       </c>
       <c r="H88" t="n">
-        <v>3974</v>
+        <v>74.2122790258138</v>
       </c>
       <c r="I88" t="n">
-        <v>74.2122790258138</v>
+        <v>0.425</v>
       </c>
       <c r="J88" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>9</v>
+      </c>
+      <c r="M88" t="n">
         <v>63047162</v>
       </c>
-      <c r="K88" t="n">
+      <c r="N88" t="n">
         <v>243610</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
       </c>
       <c r="O88" t="n">
         <v>3014719983241.106</v>
@@ -5758,34 +5746,34 @@
         <v>6</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F89" t="n">
-        <v>25</v>
+        <v>0.12</v>
       </c>
       <c r="G89" t="n">
-        <v>0.12</v>
+        <v>537</v>
       </c>
       <c r="H89" t="n">
-        <v>537</v>
+        <v>81.90790200822624</v>
       </c>
       <c r="I89" t="n">
-        <v>81.90790200822624</v>
+        <v>0.96</v>
       </c>
       <c r="J89" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>121</v>
+      </c>
+      <c r="M89" t="n">
         <v>25241998</v>
       </c>
-      <c r="K89" t="n">
+      <c r="N89" t="n">
         <v>238533</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
       </c>
       <c r="O89" t="n">
         <v>151523370932.4904</v>
@@ -5818,34 +5806,34 @@
         <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F90" t="n">
-        <v>9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G90" t="n">
-        <v>0.8888888888888888</v>
+        <v>34</v>
       </c>
       <c r="H90" t="n">
-        <v>34</v>
+        <v>76.21793227599954</v>
       </c>
       <c r="I90" t="n">
-        <v>76.21793227599954</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
         <v>741908</v>
       </c>
-      <c r="K90" t="n">
+      <c r="N90" t="n">
         <v>214969</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.2222222222222222</v>
       </c>
       <c r="O90" t="n">
         <v>9453030057.237858</v>
@@ -5878,34 +5866,34 @@
         <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G91" t="n">
         <v>6</v>
       </c>
-      <c r="G91" t="n">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="H91" t="n">
-        <v>6</v>
+        <v>63.99913718989675</v>
       </c>
       <c r="I91" t="n">
-        <v>63.99913718989675</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
         <v>50726</v>
       </c>
-      <c r="K91" t="n">
+      <c r="N91" t="n">
         <v>261</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
       </c>
       <c r="O91" t="n">
         <v>1336268856.772293</v>
@@ -5938,34 +5926,34 @@
         <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F92" t="n">
-        <v>76</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2236842105263158</v>
+        <v>2116</v>
       </c>
       <c r="H92" t="n">
-        <v>2116</v>
+        <v>80.08912480052682</v>
       </c>
       <c r="I92" t="n">
-        <v>80.08912480052682</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="J92" t="n">
+        <v>0.09210526315789473</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.06578947368421052</v>
+      </c>
+      <c r="L92" t="n">
+        <v>606</v>
+      </c>
+      <c r="M92" t="n">
         <v>21481334</v>
       </c>
-      <c r="K92" t="n">
+      <c r="N92" t="n">
         <v>65610</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.8421052631578947</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.09210526315789473</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.06578947368421052</v>
       </c>
       <c r="O92" t="n">
         <v>270946222438.171</v>
@@ -5998,34 +5986,34 @@
         <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F93" t="n">
-        <v>16</v>
+        <v>0.8125</v>
       </c>
       <c r="G93" t="n">
-        <v>0.8125</v>
+        <v>49</v>
       </c>
       <c r="H93" t="n">
-        <v>49</v>
+        <v>76.46160216913924</v>
       </c>
       <c r="I93" t="n">
-        <v>76.46160216913924</v>
+        <v>0.1875</v>
       </c>
       <c r="J93" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
         <v>1930493</v>
       </c>
-      <c r="K93" t="n">
+      <c r="N93" t="n">
         <v>30355</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.375</v>
       </c>
       <c r="O93" t="n">
         <v>6096768039.844424</v>
@@ -6058,34 +6046,34 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>22</v>
       </c>
       <c r="H94" t="n">
-        <v>22</v>
+        <v>69.22014822286459</v>
       </c>
       <c r="I94" t="n">
-        <v>69.22014822286459</v>
+        <v>0.1</v>
       </c>
       <c r="J94" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
         <v>1313095</v>
       </c>
-      <c r="K94" t="n">
+      <c r="N94" t="n">
         <v>2040</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.1</v>
       </c>
       <c r="O94" t="n">
         <v>27305930260.57168</v>
@@ -6118,34 +6106,34 @@
         <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F95" t="n">
-        <v>47</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4468085106382979</v>
+        <v>1472</v>
       </c>
       <c r="H95" t="n">
-        <v>1472</v>
+        <v>80.70113586042531</v>
       </c>
       <c r="I95" t="n">
-        <v>80.70113586042531</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="J95" t="n">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.1063829787234043</v>
+      </c>
+      <c r="L95" t="n">
+        <v>368</v>
+      </c>
+      <c r="M95" t="n">
         <v>16323044</v>
       </c>
-      <c r="K95" t="n">
+      <c r="N95" t="n">
         <v>118484</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.06382978723404255</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.1063829787234043</v>
       </c>
       <c r="O95" t="n">
         <v>18604454019.17175</v>
@@ -6178,34 +6166,34 @@
         <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F96" t="n">
-        <v>24</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4583333333333333</v>
+        <v>114</v>
       </c>
       <c r="H96" t="n">
-        <v>114</v>
+        <v>74.94891461751281</v>
       </c>
       <c r="I96" t="n">
-        <v>74.94891461751281</v>
+        <v>0.25</v>
       </c>
       <c r="J96" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>66</v>
+      </c>
+      <c r="M96" t="n">
         <v>3998905</v>
       </c>
-      <c r="K96" t="n">
+      <c r="N96" t="n">
         <v>13790</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
       </c>
       <c r="O96" t="n">
         <v>115227812226.9018</v>
@@ -6238,34 +6226,34 @@
         <v>13</v>
       </c>
       <c r="E97" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F97" t="n">
-        <v>37</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3783783783783784</v>
+        <v>3456</v>
       </c>
       <c r="H97" t="n">
-        <v>3456</v>
+        <v>79.89855850811159</v>
       </c>
       <c r="I97" t="n">
-        <v>79.89855850811159</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="J97" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="L97" t="n">
+        <v>117</v>
+      </c>
+      <c r="M97" t="n">
         <v>10781459</v>
       </c>
-      <c r="K97" t="n">
+      <c r="N97" t="n">
         <v>92090</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.2432432432432433</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.4324324324324325</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.3243243243243243</v>
       </c>
       <c r="O97" t="n">
         <v>341075744215.2021</v>
@@ -6298,37 +6286,37 @@
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F98" t="n">
-        <v>57</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4385964912280702</v>
+        <v>23003</v>
       </c>
       <c r="H98" t="n">
-        <v>23003</v>
+        <v>79.99683485214419</v>
       </c>
       <c r="I98" t="n">
-        <v>79.99683485214419</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="J98" t="n">
+        <v>0.1228070175438596</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="L98" t="n">
+        <v>90</v>
+      </c>
+      <c r="M98" t="n">
         <v>10085638</v>
       </c>
-      <c r="K98" t="n">
+      <c r="N98" t="n">
         <v>637657</v>
       </c>
-      <c r="L98" t="n">
-        <v>0.7192982456140351</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.1228070175438596</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.1578947368421053</v>
-      </c>
       <c r="O98" t="n">
-        <v>1898520603780.604</v>
+        <v>1494873058231.195</v>
       </c>
       <c r="P98" t="n">
         <v>15.81671337411806</v>
@@ -6358,34 +6346,32 @@
         <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="G99" t="n">
+        <v>39</v>
+      </c>
+      <c r="H99" t="n">
+        <v>68.8589537253186</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
         <v>0.75</v>
       </c>
-      <c r="H99" t="n">
-        <v>39</v>
-      </c>
-      <c r="I99" t="n">
-        <v>68.8589537253186</v>
-      </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
         <v>109011</v>
       </c>
-      <c r="K99" t="n">
+      <c r="N99" t="n">
         <v>344</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.25</v>
       </c>
       <c r="O99" t="n">
         <v>1783397578.802129</v>
@@ -6418,34 +6404,34 @@
         <v>15</v>
       </c>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F100" t="n">
-        <v>19</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4210526315789473</v>
+        <v>24</v>
       </c>
       <c r="H100" t="n">
-        <v>24</v>
+        <v>70.72421057706167</v>
       </c>
       <c r="I100" t="n">
-        <v>70.72421057706167</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J100" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3</v>
+      </c>
+      <c r="M100" t="n">
         <v>4722028</v>
       </c>
-      <c r="K100" t="n">
+      <c r="N100" t="n">
         <v>70273</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
       </c>
       <c r="O100" t="n">
         <v>377886436867.0802</v>
@@ -6478,34 +6464,34 @@
         <v>13</v>
       </c>
       <c r="E101" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="F101" t="n">
-        <v>85</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="G101" t="n">
-        <v>0.2941176470588235</v>
+        <v>20704</v>
       </c>
       <c r="H101" t="n">
-        <v>20704</v>
+        <v>79.32180832805463</v>
       </c>
       <c r="I101" t="n">
-        <v>79.32180832805463</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="J101" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="L101" t="n">
+        <v>52</v>
+      </c>
+      <c r="M101" t="n">
         <v>61261254</v>
       </c>
-      <c r="K101" t="n">
+      <c r="N101" t="n">
         <v>301340</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0.1176470588235294</v>
       </c>
       <c r="O101" t="n">
         <v>2490741105879.658</v>
@@ -6538,34 +6524,34 @@
         <v>6</v>
       </c>
       <c r="E102" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F102" t="n">
-        <v>9</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5555555555555556</v>
+        <v>14</v>
       </c>
       <c r="H102" t="n">
-        <v>14</v>
+        <v>75.9973996205531</v>
       </c>
       <c r="I102" t="n">
-        <v>75.9973996205531</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J102" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
         <v>3887886</v>
       </c>
-      <c r="K102" t="n">
+      <c r="N102" t="n">
         <v>111369</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0</v>
       </c>
       <c r="O102" t="n">
         <v>6796459133.151658</v>
@@ -6598,34 +6584,34 @@
         <v>14</v>
       </c>
       <c r="E103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="n">
-        <v>11</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G103" t="n">
+        <v>170</v>
+      </c>
+      <c r="H103" t="n">
+        <v>61.81790706294577</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="J103" t="n">
         <v>0.9090909090909091</v>
       </c>
-      <c r="H103" t="n">
-        <v>170</v>
-      </c>
-      <c r="I103" t="n">
-        <v>61.81790706294577</v>
-      </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
         <v>509074</v>
       </c>
-      <c r="K103" t="n">
+      <c r="N103" t="n">
         <v>2586</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0</v>
       </c>
       <c r="O103" t="n">
         <v>67393186980.625</v>
@@ -6658,34 +6644,34 @@
         <v>17</v>
       </c>
       <c r="E104" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F104" t="n">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="G104" t="n">
+        <v>299</v>
+      </c>
+      <c r="H104" t="n">
+        <v>77.14769720557068</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.5862068965517241</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.103448275862069</v>
+      </c>
+      <c r="L104" t="n">
         <v>29</v>
       </c>
-      <c r="G104" t="n">
-        <v>0.3793103448275862</v>
-      </c>
-      <c r="H104" t="n">
-        <v>299</v>
-      </c>
-      <c r="I104" t="n">
-        <v>77.14769720557068</v>
-      </c>
-      <c r="J104" t="n">
+      <c r="M104" t="n">
         <v>3179997</v>
       </c>
-      <c r="K104" t="n">
+      <c r="N104" t="n">
         <v>1564116</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0.3103448275862069</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0.5862068965517241</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.103448275862069</v>
       </c>
       <c r="O104" t="n">
         <v>36103410937.47575</v>
@@ -6718,34 +6704,34 @@
         <v>14</v>
       </c>
       <c r="E105" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F105" t="n">
-        <v>31</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5806451612903226</v>
+        <v>2806</v>
       </c>
       <c r="H105" t="n">
-        <v>2806</v>
+        <v>72.67811589715252</v>
       </c>
       <c r="I105" t="n">
-        <v>72.67811589715252</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="J105" t="n">
+        <v>0.9032258064516129</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>403</v>
+      </c>
+      <c r="M105" t="n">
         <v>16730632</v>
       </c>
-      <c r="K105" t="n">
+      <c r="N105" t="n">
         <v>41543</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0.9032258064516129</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
       </c>
       <c r="O105" t="n">
         <v>942962605930.5667</v>
@@ -6778,34 +6764,34 @@
         <v>15</v>
       </c>
       <c r="E106" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F106" t="n">
-        <v>12</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G106" t="n">
-        <v>0.6666666666666666</v>
+        <v>9</v>
       </c>
       <c r="H106" t="n">
-        <v>9</v>
+        <v>68.94639373638974</v>
       </c>
       <c r="I106" t="n">
-        <v>68.94639373638974</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="J106" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
         <v>4707270</v>
       </c>
-      <c r="K106" t="n">
+      <c r="N106" t="n">
         <v>323802</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0</v>
       </c>
       <c r="O106" t="n">
         <v>334129972525.8985</v>
@@ -6838,34 +6824,34 @@
         <v>12</v>
       </c>
       <c r="E107" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F107" t="n">
-        <v>49</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1428571428571428</v>
+        <v>2296</v>
       </c>
       <c r="H107" t="n">
-        <v>2296</v>
+        <v>79.75325842907623</v>
       </c>
       <c r="I107" t="n">
-        <v>79.75325842907623</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="J107" t="n">
+        <v>0.7346938775510204</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.04081632653061224</v>
+      </c>
+      <c r="L107" t="n">
+        <v>120</v>
+      </c>
+      <c r="M107" t="n">
         <v>38415284</v>
       </c>
-      <c r="K107" t="n">
+      <c r="N107" t="n">
         <v>312685</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0.2244897959183673</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0.7346938775510204</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.04081632653061224</v>
       </c>
       <c r="O107" t="n">
         <v>1151634454943.153</v>
@@ -6898,34 +6884,34 @@
         <v>12</v>
       </c>
       <c r="E108" t="n">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="F108" t="n">
-        <v>79</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2025316455696203</v>
+        <v>1024</v>
       </c>
       <c r="H108" t="n">
-        <v>1024</v>
+        <v>76.17023834640135</v>
       </c>
       <c r="I108" t="n">
-        <v>76.17023834640135</v>
+        <v>0.6075949367088608</v>
       </c>
       <c r="J108" t="n">
+        <v>0.379746835443038</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.01265822784810127</v>
+      </c>
+      <c r="L108" t="n">
+        <v>19</v>
+      </c>
+      <c r="M108" t="n">
         <v>21848504</v>
       </c>
-      <c r="K108" t="n">
+      <c r="N108" t="n">
         <v>238391</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0.6075949367088608</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0.379746835443038</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.01265822784810127</v>
       </c>
       <c r="O108" t="n">
         <v>525937398503.9807</v>
@@ -6958,34 +6944,34 @@
         <v>9</v>
       </c>
       <c r="E109" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F109" t="n">
-        <v>16</v>
+        <v>0.5</v>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>92</v>
       </c>
       <c r="H109" t="n">
-        <v>92</v>
+        <v>74.33470096504585</v>
       </c>
       <c r="I109" t="n">
-        <v>74.33470096504585</v>
+        <v>0.3125</v>
       </c>
       <c r="J109" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="L109" t="n">
+        <v>12</v>
+      </c>
+      <c r="M109" t="n">
         <v>7590758</v>
       </c>
-      <c r="K109" t="n">
+      <c r="N109" t="n">
         <v>20770</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.3125</v>
       </c>
       <c r="O109" t="n">
         <v>339820400560.8805</v>
@@ -7018,34 +7004,34 @@
         <v>9</v>
       </c>
       <c r="E110" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F110" t="n">
-        <v>11</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2727272727272727</v>
+        <v>75</v>
       </c>
       <c r="H110" t="n">
-        <v>75</v>
+        <v>68.93031044139008</v>
       </c>
       <c r="I110" t="n">
-        <v>68.93031044139008</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="J110" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="L110" t="n">
+        <v>34</v>
+      </c>
+      <c r="M110" t="n">
         <v>6508887</v>
       </c>
-      <c r="K110" t="n">
+      <c r="N110" t="n">
         <v>89342</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.1818181818181818</v>
       </c>
       <c r="O110" t="n">
         <v>96861055180.3474</v>
@@ -7078,34 +7064,34 @@
         <v>18</v>
       </c>
       <c r="E111" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F111" t="n">
-        <v>31</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="G111" t="n">
-        <v>0.3548387096774194</v>
+        <v>1735</v>
       </c>
       <c r="H111" t="n">
-        <v>1735</v>
+        <v>78.27244207249099</v>
       </c>
       <c r="I111" t="n">
-        <v>78.27244207249099</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="J111" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="L111" t="n">
+        <v>12</v>
+      </c>
+      <c r="M111" t="n">
         <v>14952665</v>
       </c>
-      <c r="K111" t="n">
+      <c r="N111" t="n">
         <v>181035</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0.6774193548387096</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.1290322580645161</v>
       </c>
       <c r="O111" t="n">
         <v>63644739415.06399</v>
@@ -7138,34 +7124,34 @@
         <v>18</v>
       </c>
       <c r="E112" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F112" t="n">
-        <v>33</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4242424242424243</v>
+        <v>379</v>
       </c>
       <c r="H112" t="n">
-        <v>379</v>
+        <v>77.92834301881335</v>
       </c>
       <c r="I112" t="n">
-        <v>77.92834301881335</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="J112" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="L112" t="n">
+        <v>161</v>
+      </c>
+      <c r="M112" t="n">
         <v>6586266</v>
       </c>
-      <c r="K112" t="n">
+      <c r="N112" t="n">
         <v>236800</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0.303030303030303</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.06060606060606061</v>
       </c>
       <c r="O112" t="n">
         <v>50482665556.98838</v>
@@ -7201,31 +7187,31 @@
         <v>3</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>78.12427184946063</v>
       </c>
       <c r="I113" t="n">
-        <v>78.12427184946063</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J113" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
         <v>394451</v>
       </c>
-      <c r="K113" t="n">
+      <c r="N113" t="n">
         <v>298</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0</v>
       </c>
       <c r="O113" t="n">
         <v>9125971886.7264</v>
@@ -7261,31 +7247,31 @@
         <v>6</v>
       </c>
       <c r="F114" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>85.35582881995884</v>
       </c>
       <c r="I114" t="n">
-        <v>85.35582881995884</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J114" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
         <v>68480</v>
       </c>
-      <c r="K114" t="n">
+      <c r="N114" t="n">
         <v>181</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.3333333333333333</v>
       </c>
       <c r="O114" t="n">
         <v>215159494.9556724</v>
@@ -7318,34 +7304,34 @@
         <v>18</v>
       </c>
       <c r="E115" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F115" t="n">
-        <v>48</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1666666666666667</v>
+        <v>139913</v>
       </c>
       <c r="H115" t="n">
-        <v>139913</v>
+        <v>85.21529144952983</v>
       </c>
       <c r="I115" t="n">
-        <v>85.21529144952983</v>
+        <v>0.8125</v>
       </c>
       <c r="J115" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>487</v>
+      </c>
+      <c r="M115" t="n">
         <v>54584650</v>
       </c>
-      <c r="K115" t="n">
+      <c r="N115" t="n">
         <v>676578</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0</v>
       </c>
       <c r="O115" t="n">
         <v>258174569387.6035</v>
@@ -7378,34 +7364,34 @@
         <v>6</v>
       </c>
       <c r="E116" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F116" t="n">
-        <v>27</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5555555555555556</v>
+        <v>88</v>
       </c>
       <c r="H116" t="n">
-        <v>88</v>
+        <v>77.99321402326001</v>
       </c>
       <c r="I116" t="n">
-        <v>77.99321402326001</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="J116" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="L116" t="n">
+        <v>21</v>
+      </c>
+      <c r="M116" t="n">
         <v>3359185</v>
       </c>
-      <c r="K116" t="n">
+      <c r="N116" t="n">
         <v>1030700</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0.6296296296296297</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0.2592592592592592</v>
       </c>
       <c r="O116" t="n">
         <v>21122618207.43687</v>
@@ -7438,34 +7424,34 @@
         <v>20</v>
       </c>
       <c r="E117" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F117" t="n">
-        <v>38</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="G117" t="n">
-        <v>0.3947368421052632</v>
+        <v>747</v>
       </c>
       <c r="H117" t="n">
-        <v>747</v>
+        <v>77.92316365877105</v>
       </c>
       <c r="I117" t="n">
-        <v>77.92316365877105</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="J117" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="L117" t="n">
+        <v>36</v>
+      </c>
+      <c r="M117" t="n">
         <v>6310129</v>
       </c>
-      <c r="K117" t="n">
+      <c r="N117" t="n">
         <v>462840</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0.7631578947368421</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0.1578947368421053</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.07894736842105263</v>
       </c>
       <c r="O117" t="n">
         <v>35913501296.32024</v>
@@ -7498,34 +7484,34 @@
         <v>9</v>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>49</v>
       </c>
       <c r="H118" t="n">
-        <v>49</v>
+        <v>83.84950927160328</v>
       </c>
       <c r="I118" t="n">
-        <v>83.84950927160328</v>
+        <v>0.1</v>
       </c>
       <c r="J118" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L118" t="n">
+        <v>23</v>
+      </c>
+      <c r="M118" t="n">
         <v>4140289</v>
       </c>
-      <c r="K118" t="n">
+      <c r="N118" t="n">
         <v>10400</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.2</v>
       </c>
       <c r="O118" t="n">
         <v>105020192033.8982</v>
@@ -7558,34 +7544,34 @@
         <v>12</v>
       </c>
       <c r="E119" t="n">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="F119" t="n">
-        <v>145</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4482758620689655</v>
+        <v>59610</v>
       </c>
       <c r="H119" t="n">
-        <v>59610</v>
+        <v>73.09343617064745</v>
       </c>
       <c r="I119" t="n">
-        <v>73.09343617064745</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="J119" t="n">
+        <v>0.2896551724137931</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.1931034482758621</v>
+      </c>
+      <c r="L119" t="n">
+        <v>116</v>
+      </c>
+      <c r="M119" t="n">
         <v>138082178</v>
       </c>
-      <c r="K119" t="n">
+      <c r="N119" t="n">
         <v>17098242</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.5172413793103449</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0.2896551724137931</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.1931034482758621</v>
       </c>
       <c r="O119" t="n">
         <v>3877753832514.577</v>
@@ -7618,34 +7604,34 @@
         <v>20</v>
       </c>
       <c r="E120" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F120" t="n">
-        <v>19</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="G120" t="n">
-        <v>0.6842105263157895</v>
+        <v>111</v>
       </c>
       <c r="H120" t="n">
-        <v>111</v>
+        <v>80.25330367887145</v>
       </c>
       <c r="I120" t="n">
-        <v>80.25330367887145</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J120" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="L120" t="n">
+        <v>9</v>
+      </c>
+      <c r="M120" t="n">
         <v>584578</v>
       </c>
-      <c r="K120" t="n">
+      <c r="N120" t="n">
         <v>28896</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="M120" t="n">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.1578947368421053</v>
       </c>
       <c r="O120" t="n">
         <v>1684086788.572901</v>
@@ -7678,34 +7664,34 @@
         <v>6</v>
       </c>
       <c r="E121" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>17</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5294117647058824</v>
+        <v>51</v>
       </c>
       <c r="H121" t="n">
-        <v>51</v>
+        <v>80.61449319331828</v>
       </c>
       <c r="I121" t="n">
-        <v>80.61449319331828</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="J121" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="L121" t="n">
+        <v>16</v>
+      </c>
+      <c r="M121" t="n">
         <v>10884958</v>
       </c>
-      <c r="K121" t="n">
+      <c r="N121" t="n">
         <v>245857</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="M121" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.1176470588235294</v>
       </c>
       <c r="O121" t="n">
         <v>28057116117.41013</v>
@@ -7738,34 +7724,34 @@
         <v>6</v>
       </c>
       <c r="E122" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F122" t="n">
-        <v>9</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G122" t="n">
-        <v>0.5555555555555556</v>
+        <v>11</v>
       </c>
       <c r="H122" t="n">
-        <v>11</v>
+        <v>75.89320829591502</v>
       </c>
       <c r="I122" t="n">
-        <v>75.89320829591502</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="J122" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L122" t="n">
+        <v>3</v>
+      </c>
+      <c r="M122" t="n">
         <v>1628603</v>
       </c>
-      <c r="K122" t="n">
+      <c r="N122" t="n">
         <v>36125</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="M122" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.3333333333333333</v>
       </c>
       <c r="O122" t="n">
         <v>3428129027.714313</v>
@@ -7798,34 +7784,34 @@
         <v>11</v>
       </c>
       <c r="E123" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>0.55</v>
       </c>
       <c r="G123" t="n">
-        <v>0.55</v>
+        <v>227</v>
       </c>
       <c r="H123" t="n">
-        <v>227</v>
+        <v>78.92764144755746</v>
       </c>
       <c r="I123" t="n">
-        <v>78.92764144755746</v>
+        <v>0.75</v>
       </c>
       <c r="J123" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
         <v>17522010</v>
       </c>
-      <c r="K123" t="n">
+      <c r="N123" t="n">
         <v>2724900</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M123" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N123" t="n">
-        <v>0.05</v>
       </c>
       <c r="O123" t="n">
         <v>453482621883.8846</v>
@@ -7858,34 +7844,34 @@
         <v>15</v>
       </c>
       <c r="E124" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F124" t="n">
-        <v>13</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="G124" t="n">
-        <v>0.3076923076923077</v>
+        <v>104</v>
       </c>
       <c r="H124" t="n">
-        <v>104</v>
+        <v>79.56446750406029</v>
       </c>
       <c r="I124" t="n">
-        <v>79.56446750406029</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="J124" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="L124" t="n">
+        <v>5</v>
+      </c>
+      <c r="M124" t="n">
         <v>3525761</v>
       </c>
-      <c r="K124" t="n">
+      <c r="N124" t="n">
         <v>65300</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="M124" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.1538461538461539</v>
       </c>
       <c r="O124" t="n">
         <v>95267500913.10567</v>
@@ -7918,34 +7904,34 @@
         <v>17</v>
       </c>
       <c r="E125" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F125" t="n">
-        <v>6</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G125" t="n">
-        <v>0.8333333333333334</v>
+        <v>10</v>
       </c>
       <c r="H125" t="n">
+        <v>69.62915235087939</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
         <v>10</v>
       </c>
-      <c r="I125" t="n">
-        <v>69.62915235087939</v>
-      </c>
-      <c r="J125" t="n">
+      <c r="M125" t="n">
         <v>578025</v>
       </c>
-      <c r="K125" t="n">
+      <c r="N125" t="n">
         <v>30.4</v>
-      </c>
-      <c r="L125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0</v>
       </c>
       <c r="O125" t="n">
         <v>77737091881.91721</v>
@@ -7978,34 +7964,34 @@
         <v>11</v>
       </c>
       <c r="E126" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F126" t="n">
-        <v>18</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G126" t="n">
-        <v>0.3333333333333333</v>
+        <v>308</v>
       </c>
       <c r="H126" t="n">
-        <v>308</v>
+        <v>76.92593152279183</v>
       </c>
       <c r="I126" t="n">
-        <v>76.92593152279183</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="J126" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L126" t="n">
+        <v>24</v>
+      </c>
+      <c r="M126" t="n">
         <v>5496737</v>
       </c>
-      <c r="K126" t="n">
+      <c r="N126" t="n">
         <v>199951</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="M126" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0.05555555555555555</v>
       </c>
       <c r="O126" t="n">
         <v>30702631348.79919</v>
@@ -8038,34 +8024,34 @@
         <v>17</v>
       </c>
       <c r="E127" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="F127" t="n">
-        <v>70</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1285714285714286</v>
+        <v>1547</v>
       </c>
       <c r="H127" t="n">
-        <v>1547</v>
+        <v>76.51101298845221</v>
       </c>
       <c r="I127" t="n">
-        <v>76.51101298845221</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J127" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>119</v>
+      </c>
+      <c r="M127" t="n">
         <v>23113901</v>
       </c>
-      <c r="K127" t="n">
+      <c r="N127" t="n">
         <v>35980</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.08571428571428572</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0.9142857142857143</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0</v>
       </c>
       <c r="O127" t="n">
         <v>59338697656967.27</v>
@@ -8098,34 +8084,34 @@
         <v>21</v>
       </c>
       <c r="E128" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F128" t="n">
-        <v>9</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G128" t="n">
-        <v>0.4444444444444444</v>
+        <v>43</v>
       </c>
       <c r="H128" t="n">
-        <v>43</v>
+        <v>72.57002245819707</v>
       </c>
       <c r="I128" t="n">
-        <v>72.57002245819707</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J128" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
         <v>194320</v>
       </c>
-      <c r="K128" t="n">
+      <c r="N128" t="n">
         <v>2831</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0.1111111111111111</v>
       </c>
       <c r="O128" t="n">
         <v>1247022815.162291</v>
@@ -8158,34 +8144,34 @@
         <v>9</v>
       </c>
       <c r="E129" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F129" t="n">
-        <v>45</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G129" t="n">
-        <v>0.06666666666666667</v>
+        <v>1269</v>
       </c>
       <c r="H129" t="n">
-        <v>1269</v>
+        <v>77.72001843051378</v>
       </c>
       <c r="I129" t="n">
-        <v>77.72001843051378</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="J129" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>191</v>
+      </c>
+      <c r="M129" t="n">
         <v>24771809</v>
       </c>
-      <c r="K129" t="n">
+      <c r="N129" t="n">
         <v>527968</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="M129" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0</v>
       </c>
       <c r="O129" t="n">
         <v>2838262263949.302</v>
@@ -8218,34 +8204,34 @@
         <v>5</v>
       </c>
       <c r="E130" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F130" t="n">
-        <v>50</v>
+        <v>0.34</v>
       </c>
       <c r="G130" t="n">
-        <v>0.34</v>
+        <v>1079</v>
       </c>
       <c r="H130" t="n">
-        <v>1079</v>
+        <v>81.84866700727326</v>
       </c>
       <c r="I130" t="n">
-        <v>81.84866700727326</v>
+        <v>0.84</v>
       </c>
       <c r="J130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L130" t="n">
+        <v>512</v>
+      </c>
+      <c r="M130" t="n">
         <v>73599190</v>
       </c>
-      <c r="K130" t="n">
+      <c r="N130" t="n">
         <v>2344858</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M130" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0.06</v>
       </c>
       <c r="O130" t="n">
         <v>84850183675.74524</v>
@@ -8278,34 +8264,34 @@
         <v>7</v>
       </c>
       <c r="E131" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F131" t="n">
-        <v>22</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="G131" t="n">
-        <v>0.5909090909090909</v>
+        <v>73</v>
       </c>
       <c r="H131" t="n">
-        <v>73</v>
+        <v>78.65784557676938</v>
       </c>
       <c r="I131" t="n">
-        <v>78.65784557676938</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L131" t="n">
+        <v>4</v>
+      </c>
+      <c r="M131" t="n">
         <v>14309466</v>
       </c>
-      <c r="K131" t="n">
+      <c r="N131" t="n">
         <v>752618</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0.9545454545454546</v>
-      </c>
-      <c r="M131" t="n">
-        <v>0</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0.04545454545454546</v>
       </c>
       <c r="O131" t="n">
         <v>59248423658.92666</v>
@@ -8338,34 +8324,34 @@
         <v>15</v>
       </c>
       <c r="E132" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>9</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G132" t="n">
-        <v>0.4444444444444444</v>
+        <v>19</v>
       </c>
       <c r="H132" t="n">
-        <v>19</v>
+        <v>72.48047436322946</v>
       </c>
       <c r="I132" t="n">
-        <v>72.48047436322946</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
         <v>9103788</v>
       </c>
-      <c r="K132" t="n">
+      <c r="N132" t="n">
         <v>450295</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0</v>
-      </c>
-      <c r="M132" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0.1111111111111111</v>
       </c>
       <c r="O132" t="n">
         <v>526624764554.0115</v>
@@ -8398,34 +8384,34 @@
         <v>2</v>
       </c>
       <c r="E133" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F133" t="n">
-        <v>6</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G133" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
       <c r="H133" t="n">
-        <v>4</v>
+        <v>78.91867674844202</v>
       </c>
       <c r="I133" t="n">
-        <v>78.91867674844202</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
         <v>46335</v>
       </c>
-      <c r="K133" t="n">
+      <c r="N133" t="n">
         <v>948</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0</v>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0</v>
       </c>
       <c r="O133" t="n">
         <v>1017616734.1608</v>
@@ -8458,34 +8444,34 @@
         <v>11</v>
       </c>
       <c r="E134" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F134" t="n">
-        <v>52</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="G134" t="n">
-        <v>0.4230769230769231</v>
+        <v>2003</v>
       </c>
       <c r="H134" t="n">
-        <v>2003</v>
+        <v>76.98822030800926</v>
       </c>
       <c r="I134" t="n">
-        <v>76.98822030800926</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="J134" t="n">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="L134" t="n">
+        <v>37</v>
+      </c>
+      <c r="M134" t="n">
         <v>7768385</v>
       </c>
-      <c r="K134" t="n">
+      <c r="N134" t="n">
         <v>143100</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0.8653846153846154</v>
-      </c>
-      <c r="M134" t="n">
-        <v>0.09615384615384616</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.03846153846153846</v>
       </c>
       <c r="O134" t="n">
         <v>28522561393.2596</v>
@@ -8518,34 +8504,34 @@
         <v>21</v>
       </c>
       <c r="E135" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F135" t="n">
-        <v>14</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G135" t="n">
-        <v>0.8571428571428571</v>
+        <v>2</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>79.82323066282957</v>
       </c>
       <c r="I135" t="n">
-        <v>79.82323066282957</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
         <v>106146</v>
       </c>
-      <c r="K135" t="n">
+      <c r="N135" t="n">
         <v>747</v>
-      </c>
-      <c r="L135" t="n">
-        <v>0</v>
-      </c>
-      <c r="M135" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0.07142857142857142</v>
       </c>
       <c r="O135" t="n">
         <v>648910365.7052449</v>
@@ -8578,34 +8564,34 @@
         <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>9</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G136" t="n">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="H136" t="n">
-        <v>8</v>
+        <v>70.34784659038583</v>
       </c>
       <c r="I136" t="n">
-        <v>70.34784659038583</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="J136" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
         <v>1226383</v>
       </c>
-      <c r="K136" t="n">
+      <c r="N136" t="n">
         <v>5128</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="M136" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0.1111111111111111</v>
       </c>
       <c r="O136" t="n">
         <v>37205592906.75845</v>
@@ -8638,34 +8624,34 @@
         <v>8</v>
       </c>
       <c r="E137" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F137" t="n">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="G137" t="n">
-        <v>0.2</v>
+        <v>101</v>
       </c>
       <c r="H137" t="n">
-        <v>101</v>
+        <v>81.4948978214869</v>
       </c>
       <c r="I137" t="n">
-        <v>81.4948978214869</v>
+        <v>0.9</v>
       </c>
       <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>13</v>
+      </c>
+      <c r="M137" t="n">
         <v>10732900</v>
       </c>
-      <c r="K137" t="n">
+      <c r="N137" t="n">
         <v>163610</v>
-      </c>
-      <c r="L137" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M137" t="n">
-        <v>0</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.1</v>
       </c>
       <c r="O137" t="n">
         <v>122271338475.5383</v>
@@ -8701,31 +8687,31 @@
         <v>5</v>
       </c>
       <c r="F138" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>72.07621638609891</v>
       </c>
       <c r="I138" t="n">
-        <v>72.07621638609891</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
         <v>10619</v>
       </c>
-      <c r="K138" t="n">
+      <c r="N138" t="n">
         <v>26</v>
-      </c>
-      <c r="L138" t="n">
-        <v>0</v>
-      </c>
-      <c r="M138" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N138" t="n">
-        <v>0.2</v>
       </c>
       <c r="O138" t="n">
         <v>44971823.2854005</v>
@@ -8758,34 +8744,34 @@
         <v>3</v>
       </c>
       <c r="E139" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F139" t="n">
-        <v>32</v>
+        <v>0.6875</v>
       </c>
       <c r="G139" t="n">
-        <v>0.6875</v>
+        <v>34</v>
       </c>
       <c r="H139" t="n">
-        <v>34</v>
+        <v>77.81334778354837</v>
       </c>
       <c r="I139" t="n">
-        <v>77.81334778354837</v>
+        <v>0.59375</v>
       </c>
       <c r="J139" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="L139" t="n">
+        <v>8</v>
+      </c>
+      <c r="M139" t="n">
         <v>3316328</v>
       </c>
-      <c r="K139" t="n">
+      <c r="N139" t="n">
         <v>176215</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="M139" t="n">
-        <v>0.34375</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0.0625</v>
       </c>
       <c r="O139" t="n">
         <v>73454742547.25317</v>
@@ -8818,34 +8804,34 @@
         <v>12</v>
       </c>
       <c r="E140" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F140" t="n">
-        <v>34</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="G140" t="n">
-        <v>0.3529411764705883</v>
+        <v>1224</v>
       </c>
       <c r="H140" t="n">
-        <v>1224</v>
+        <v>76.29792119008459</v>
       </c>
       <c r="I140" t="n">
-        <v>76.29792119008459</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="J140" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="L140" t="n">
+        <v>77</v>
+      </c>
+      <c r="M140" t="n">
         <v>44854065</v>
       </c>
-      <c r="K140" t="n">
+      <c r="N140" t="n">
         <v>603550</v>
-      </c>
-      <c r="L140" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="M140" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0.05882352941176471</v>
       </c>
       <c r="O140" t="n">
         <v>502400888371.2385</v>
@@ -8878,34 +8864,34 @@
         <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F141" t="n">
-        <v>11</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G141" t="n">
-        <v>0.7272727272727273</v>
+        <v>19</v>
       </c>
       <c r="H141" t="n">
-        <v>19</v>
+        <v>79.82853081969938</v>
       </c>
       <c r="I141" t="n">
-        <v>79.82853081969938</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="J141" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
         <v>103537</v>
       </c>
-      <c r="K141" t="n">
+      <c r="N141" t="n">
         <v>389</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="M141" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0.09090909090909091</v>
       </c>
       <c r="O141" t="n">
         <v>1365651840.277849</v>
@@ -8944,28 +8930,26 @@
         <v>1</v>
       </c>
       <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>56.5046456390697</v>
+      </c>
+      <c r="I142" t="n">
         <v>1</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>56.5046456390697</v>
-      </c>
       <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
         <v>5054828</v>
       </c>
-      <c r="K142" t="n">
+      <c r="N142" t="n">
         <v>488100</v>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="n">
-        <v>0</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0</v>
       </c>
       <c r="O142" t="n">
         <v>81367694606.1384</v>
@@ -8998,34 +8982,32 @@
         <v>10</v>
       </c>
       <c r="E143" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F143" t="n">
-        <v>6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G143" t="n">
+        <v>251</v>
+      </c>
+      <c r="H143" t="n">
+        <v>67.71074569413879</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J143" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>251</v>
-      </c>
-      <c r="I143" t="n">
-        <v>67.71074569413879</v>
-      </c>
-      <c r="J143" t="n">
+      <c r="K143" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
         <v>716896</v>
       </c>
-      <c r="K143" t="n">
+      <c r="N143" t="n">
         <v>38394</v>
-      </c>
-      <c r="L143" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M143" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="O143" t="n">
         <v>8225018115.186572</v>
@@ -9058,34 +9040,34 @@
         <v>5</v>
       </c>
       <c r="E144" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F144" t="n">
-        <v>13</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G144" t="n">
-        <v>0.5384615384615384</v>
+        <v>48</v>
       </c>
       <c r="H144" t="n">
-        <v>48</v>
+        <v>79.38221116608651</v>
       </c>
       <c r="I144" t="n">
-        <v>79.38221116608651</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
         <v>4125916</v>
       </c>
-      <c r="K144" t="n">
+      <c r="N144" t="n">
         <v>342000</v>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0</v>
       </c>
       <c r="O144" t="n">
         <v>21093098480.33578</v>
@@ -9118,34 +9100,32 @@
         <v>9</v>
       </c>
       <c r="E145" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="G145" t="n">
-        <v>0.5</v>
+        <v>35</v>
       </c>
       <c r="H145" t="n">
-        <v>35</v>
+        <v>70.72790053455908</v>
       </c>
       <c r="I145" t="n">
-        <v>70.72790053455908</v>
+        <v>0.8</v>
       </c>
       <c r="J145" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
         <v>9493600</v>
       </c>
-      <c r="K145" t="n">
+      <c r="N145" t="n">
         <v>86600</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0.1</v>
       </c>
       <c r="O145" t="n">
         <v>143794573151.4212</v>
@@ -9178,34 +9158,34 @@
         <v>2</v>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F146" t="n">
-        <v>6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G146" t="n">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>78.38433554660195</v>
       </c>
       <c r="I146" t="n">
-        <v>78.38433554660195</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
         <v>287733</v>
       </c>
-      <c r="K146" t="n">
+      <c r="N146" t="n">
         <v>430</v>
-      </c>
-      <c r="L146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="O146" t="n">
         <v>4558761656.670367</v>
@@ -9238,34 +9218,34 @@
         <v>5</v>
       </c>
       <c r="E147" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F147" t="n">
-        <v>27</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="G147" t="n">
+        <v>25</v>
+      </c>
+      <c r="H147" t="n">
+        <v>80.04135843558599</v>
+      </c>
+      <c r="I147" t="n">
         <v>0.5925925925925926</v>
       </c>
-      <c r="H147" t="n">
-        <v>25</v>
-      </c>
-      <c r="I147" t="n">
-        <v>80.04135843558599</v>
-      </c>
       <c r="J147" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
         <v>5057208</v>
       </c>
-      <c r="K147" t="n">
+      <c r="N147" t="n">
         <v>622984</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0.5925925925925926</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.07407407407407407</v>
       </c>
       <c r="O147" t="n">
         <v>4147127815.969607</v>
@@ -9298,34 +9278,34 @@
         <v>12</v>
       </c>
       <c r="E148" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F148" t="n">
-        <v>27</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1851851851851852</v>
+        <v>591</v>
       </c>
       <c r="H148" t="n">
-        <v>591</v>
+        <v>79.39603910828944</v>
       </c>
       <c r="I148" t="n">
-        <v>79.39603910828944</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="J148" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>3</v>
+      </c>
+      <c r="M148" t="n">
         <v>10177300</v>
       </c>
-      <c r="K148" t="n">
+      <c r="N148" t="n">
         <v>78867</v>
-      </c>
-      <c r="L148" t="n">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="M148" t="n">
-        <v>0.5185185185185185</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0</v>
       </c>
       <c r="O148" t="n">
         <v>410017239771.7439</v>
@@ -9358,34 +9338,34 @@
         <v>9</v>
       </c>
       <c r="E149" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F149" t="n">
-        <v>9</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G149" t="n">
-        <v>0.7777777777777778</v>
+        <v>5</v>
       </c>
       <c r="H149" t="n">
-        <v>5</v>
+        <v>82.45816411398077</v>
       </c>
       <c r="I149" t="n">
-        <v>82.45816411398077</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="J149" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
         <v>2970495</v>
       </c>
-      <c r="K149" t="n">
+      <c r="N149" t="n">
         <v>29743</v>
-      </c>
-      <c r="L149" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="M149" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0.1111111111111111</v>
       </c>
       <c r="O149" t="n">
         <v>35377952590.54544</v>
@@ -9424,28 +9404,26 @@
         <v>1</v>
       </c>
       <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>63.7604552373995</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
         <v>1</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>63.7604552373995</v>
-      </c>
-      <c r="J150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
         <v>408786</v>
       </c>
-      <c r="K150" t="n">
+      <c r="N150" t="n">
         <v>5765</v>
-      </c>
-      <c r="L150" t="n">
-        <v>0</v>
-      </c>
-      <c r="M150" t="n">
-        <v>0</v>
-      </c>
-      <c r="N150" t="n">
-        <v>1</v>
       </c>
       <c r="O150" t="n">
         <v>26021232889.82818</v>
@@ -9478,34 +9456,32 @@
         <v>9</v>
       </c>
       <c r="E151" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>7</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G151" t="n">
-        <v>0.5714285714285714</v>
+        <v>61</v>
       </c>
       <c r="H151" t="n">
-        <v>61</v>
+        <v>70.3951157284225</v>
       </c>
       <c r="I151" t="n">
-        <v>70.3951157284225</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
         <v>1138071</v>
       </c>
-      <c r="K151" t="n">
+      <c r="N151" t="n">
         <v>9251</v>
-      </c>
-      <c r="L151" t="n">
-        <v>0</v>
-      </c>
-      <c r="M151" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.2857142857142857</v>
       </c>
       <c r="O151" t="n">
         <v>32358960691.72333</v>
@@ -9538,34 +9514,34 @@
         <v>12</v>
       </c>
       <c r="E152" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F152" t="n">
-        <v>15</v>
+        <v>0.4</v>
       </c>
       <c r="G152" t="n">
-        <v>0.4</v>
+        <v>89</v>
       </c>
       <c r="H152" t="n">
-        <v>89</v>
+        <v>75.4641504256262</v>
       </c>
       <c r="I152" t="n">
-        <v>75.4641504256262</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="J152" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
         <v>3656843</v>
       </c>
-      <c r="K152" t="n">
+      <c r="N152" t="n">
         <v>33851</v>
-      </c>
-      <c r="L152" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="M152" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.2</v>
       </c>
       <c r="O152" t="n">
         <v>31715996544.06127</v>
@@ -9598,34 +9574,34 @@
         <v>9</v>
       </c>
       <c r="E153" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F153" t="n">
-        <v>21</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G153" t="n">
-        <v>0.6666666666666666</v>
+        <v>61</v>
       </c>
       <c r="H153" t="n">
-        <v>61</v>
+        <v>80.6032785547807</v>
       </c>
       <c r="I153" t="n">
-        <v>80.6032785547807</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="J153" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="L153" t="n">
+        <v>40</v>
+      </c>
+      <c r="M153" t="n">
         <v>4570934</v>
       </c>
-      <c r="K153" t="n">
+      <c r="N153" t="n">
         <v>69700</v>
-      </c>
-      <c r="L153" t="n">
-        <v>0.8095238095238095</v>
-      </c>
-      <c r="M153" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="N153" t="n">
-        <v>0.04761904761904762</v>
       </c>
       <c r="O153" t="n">
         <v>51259415793.68245</v>
@@ -9658,34 +9634,34 @@
         <v>8</v>
       </c>
       <c r="E154" t="n">
+        <v>3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G154" t="n">
+        <v>20</v>
+      </c>
+      <c r="H154" t="n">
+        <v>83.57509630901457</v>
+      </c>
+      <c r="I154" t="n">
         <v>1</v>
       </c>
-      <c r="F154" t="n">
-        <v>3</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H154" t="n">
-        <v>20</v>
-      </c>
-      <c r="I154" t="n">
-        <v>83.57509630901457</v>
-      </c>
       <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>4</v>
+      </c>
+      <c r="M154" t="n">
         <v>6733620</v>
       </c>
-      <c r="K154" t="n">
+      <c r="N154" t="n">
         <v>1759540</v>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="n">
-        <v>0</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0</v>
       </c>
       <c r="O154" t="n">
         <v>89560461684.14867</v>
@@ -9718,34 +9694,34 @@
         <v>8</v>
       </c>
       <c r="E155" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F155" t="n">
-        <v>34</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="G155" t="n">
+        <v>1253</v>
+      </c>
+      <c r="H155" t="n">
+        <v>79.83369264364222</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="J155" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="H155" t="n">
-        <v>1253</v>
-      </c>
-      <c r="I155" t="n">
-        <v>79.83369264364222</v>
-      </c>
-      <c r="J155" t="n">
+      <c r="K155" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="L155" t="n">
+        <v>39</v>
+      </c>
+      <c r="M155" t="n">
         <v>32309239</v>
       </c>
-      <c r="K155" t="n">
+      <c r="N155" t="n">
         <v>446550</v>
-      </c>
-      <c r="L155" t="n">
-        <v>0.6764705882352942</v>
-      </c>
-      <c r="M155" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="N155" t="n">
-        <v>0.02941176470588235</v>
       </c>
       <c r="O155" t="n">
         <v>267186265859.2938</v>
@@ -9778,34 +9754,34 @@
         <v>13</v>
       </c>
       <c r="E156" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F156" t="n">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>68</v>
       </c>
       <c r="H156" t="n">
-        <v>68</v>
+        <v>80.03905961733504</v>
       </c>
       <c r="I156" t="n">
-        <v>80.03905961733504</v>
+        <v>0.55</v>
       </c>
       <c r="J156" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>32</v>
+      </c>
+      <c r="M156" t="n">
         <v>2082370</v>
       </c>
-      <c r="K156" t="n">
+      <c r="N156" t="n">
         <v>25713</v>
-      </c>
-      <c r="L156" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M156" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N156" t="n">
-        <v>0.1</v>
       </c>
       <c r="O156" t="n">
         <v>32700827604.73046</v>
@@ -9838,34 +9814,34 @@
         <v>6</v>
       </c>
       <c r="E157" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>17</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G157" t="n">
-        <v>0.4705882352941176</v>
+        <v>79</v>
       </c>
       <c r="H157" t="n">
-        <v>79</v>
+        <v>80.79667744670304</v>
       </c>
       <c r="I157" t="n">
-        <v>80.79667744670304</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="J157" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="L157" t="n">
+        <v>4</v>
+      </c>
+      <c r="M157" t="n">
         <v>1840454</v>
       </c>
-      <c r="K157" t="n">
+      <c r="N157" t="n">
         <v>11295</v>
-      </c>
-      <c r="L157" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="M157" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0.1764705882352941</v>
       </c>
       <c r="O157" t="n">
         <v>4767178753.827642</v>
@@ -9898,34 +9874,34 @@
         <v>12</v>
       </c>
       <c r="E158" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F158" t="n">
-        <v>29</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="G158" t="n">
-        <v>0.5517241379310345</v>
+        <v>907</v>
       </c>
       <c r="H158" t="n">
-        <v>907</v>
+        <v>78.62468316760084</v>
       </c>
       <c r="I158" t="n">
-        <v>78.62468316760084</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="J158" t="n">
+        <v>0.4482758620689655</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="L158" t="n">
+        <v>179</v>
+      </c>
+      <c r="M158" t="n">
         <v>9958453</v>
       </c>
-      <c r="K158" t="n">
+      <c r="N158" t="n">
         <v>93028</v>
-      </c>
-      <c r="L158" t="n">
-        <v>0.5172413793103449</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0.4482758620689655</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0.03448275862068965</v>
       </c>
       <c r="O158" t="n">
         <v>296065342551.8089</v>
@@ -9958,34 +9934,34 @@
         <v>13</v>
       </c>
       <c r="E159" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F159" t="n">
-        <v>27</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="G159" t="n">
-        <v>0.6296296296296297</v>
+        <v>859</v>
       </c>
       <c r="H159" t="n">
-        <v>859</v>
+        <v>81.97675158039353</v>
       </c>
       <c r="I159" t="n">
-        <v>81.97675158039353</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="J159" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
         <v>4480043</v>
       </c>
-      <c r="K159" t="n">
+      <c r="N159" t="n">
         <v>56594</v>
-      </c>
-      <c r="L159" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="M159" t="n">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="N159" t="n">
-        <v>0.2592592592592592</v>
       </c>
       <c r="O159" t="n">
         <v>109574916244.5608</v>
@@ -10018,34 +9994,34 @@
         <v>9</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>80.5029129111868</v>
       </c>
       <c r="I160" t="n">
-        <v>80.5029129111868</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>2646314</v>
+        <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>17818</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>2646314</v>
       </c>
       <c r="N160" t="n">
-        <v>0</v>
+        <v>17818</v>
       </c>
       <c r="O160" t="n">
         <v>199439879525.3363</v>
@@ -10078,34 +10054,34 @@
         <v>6</v>
       </c>
       <c r="E161" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F161" t="n">
-        <v>13</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G161" t="n">
-        <v>0.5384615384615384</v>
+        <v>83</v>
       </c>
       <c r="H161" t="n">
-        <v>83</v>
+        <v>75.05418367100977</v>
       </c>
       <c r="I161" t="n">
-        <v>75.05418367100977</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
         <v>6961049</v>
       </c>
-      <c r="K161" t="n">
+      <c r="N161" t="n">
         <v>56785</v>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="n">
-        <v>0</v>
-      </c>
-      <c r="N161" t="n">
-        <v>0</v>
       </c>
       <c r="O161" t="n">
         <v>11770042048.83639</v>
@@ -10138,34 +10114,34 @@
         <v>6</v>
       </c>
       <c r="E162" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F162" t="n">
-        <v>14</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G162" t="n">
-        <v>0.2857142857142857</v>
+        <v>1314</v>
       </c>
       <c r="H162" t="n">
-        <v>1314</v>
+        <v>84.29075632121859</v>
       </c>
       <c r="I162" t="n">
-        <v>84.29075632121859</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J162" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1119</v>
+      </c>
+      <c r="M162" t="n">
         <v>5485998</v>
       </c>
-      <c r="K162" t="n">
+      <c r="N162" t="n">
         <v>71740</v>
-      </c>
-      <c r="L162" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="M162" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="N162" t="n">
-        <v>0.07142857142857142</v>
       </c>
       <c r="O162" t="n">
         <v>12487058383.73528</v>
@@ -10198,34 +10174,34 @@
         <v>7</v>
       </c>
       <c r="E163" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F163" t="n">
-        <v>49</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="G163" t="n">
-        <v>0.3265306122448979</v>
+        <v>1242</v>
       </c>
       <c r="H163" t="n">
-        <v>1242</v>
+        <v>81.76608704549288</v>
       </c>
       <c r="I163" t="n">
-        <v>81.76608704549288</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="J163" t="n">
+        <v>0.08163265306122448</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.1224489795918367</v>
+      </c>
+      <c r="L163" t="n">
+        <v>298</v>
+      </c>
+      <c r="M163" t="n">
         <v>35873253</v>
       </c>
-      <c r="K163" t="n">
+      <c r="N163" t="n">
         <v>241038</v>
-      </c>
-      <c r="L163" t="n">
-        <v>0.7959183673469388</v>
-      </c>
-      <c r="M163" t="n">
-        <v>0.08163265306122448</v>
-      </c>
-      <c r="N163" t="n">
-        <v>0.1224489795918367</v>
       </c>
       <c r="O163" t="n">
         <v>88607945961.71187</v>
@@ -10258,34 +10234,34 @@
         <v>12</v>
       </c>
       <c r="E164" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F164" t="n">
-        <v>22</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G164" t="n">
-        <v>0.2727272727272727</v>
+        <v>203</v>
       </c>
       <c r="H164" t="n">
-        <v>203</v>
+        <v>78.22167835989792</v>
       </c>
       <c r="I164" t="n">
-        <v>78.22167835989792</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="J164" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
         <v>5483088</v>
       </c>
-      <c r="K164" t="n">
+      <c r="N164" t="n">
         <v>49035</v>
-      </c>
-      <c r="L164" t="n">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="M164" t="n">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="N164" t="n">
-        <v>0.04545454545454546</v>
       </c>
       <c r="O164" t="n">
         <v>170909174581.0988</v>
@@ -10318,34 +10294,32 @@
         <v>7</v>
       </c>
       <c r="E165" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F165" t="n">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="G165" t="n">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="H165" t="n">
-        <v>5</v>
+        <v>79.21585719503895</v>
       </c>
       <c r="I165" t="n">
-        <v>79.21585719503895</v>
+        <v>0.5</v>
       </c>
       <c r="J165" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
         <v>90024</v>
       </c>
-      <c r="K165" t="n">
+      <c r="N165" t="n">
         <v>455</v>
-      </c>
-      <c r="L165" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M165" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0</v>
       </c>
       <c r="O165" t="n">
         <v>2608997355.281682</v>
@@ -10378,34 +10352,34 @@
         <v>6</v>
       </c>
       <c r="E166" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F166" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G166" t="n">
+        <v>12</v>
+      </c>
+      <c r="H166" t="n">
+        <v>77.68572590080529</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.5</v>
       </c>
-      <c r="H166" t="n">
-        <v>12</v>
-      </c>
-      <c r="I166" t="n">
-        <v>77.68572590080529</v>
-      </c>
-      <c r="J166" t="n">
+      <c r="L166" t="n">
+        <v>9</v>
+      </c>
+      <c r="M166" t="n">
         <v>523568</v>
       </c>
-      <c r="K166" t="n">
+      <c r="N166" t="n">
         <v>4033</v>
-      </c>
-      <c r="L166" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M166" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0.5</v>
       </c>
       <c r="O166" t="n">
         <v>3603311988.648398</v>
@@ -10438,34 +10412,34 @@
         <v>13</v>
       </c>
       <c r="E167" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F167" t="n">
-        <v>25</v>
+        <v>0.64</v>
       </c>
       <c r="G167" t="n">
-        <v>0.64</v>
+        <v>47</v>
       </c>
       <c r="H167" t="n">
-        <v>47</v>
+        <v>82.63564961689623</v>
       </c>
       <c r="I167" t="n">
-        <v>82.63564961689623</v>
+        <v>0.68</v>
       </c>
       <c r="J167" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
         <v>4622292</v>
       </c>
-      <c r="K167" t="n">
+      <c r="N167" t="n">
         <v>51197</v>
-      </c>
-      <c r="L167" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="M167" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="N167" t="n">
-        <v>0.08</v>
       </c>
       <c r="O167" t="n">
         <v>46693043746.55554</v>
@@ -10498,34 +10472,34 @@
         <v>9</v>
       </c>
       <c r="E168" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F168" t="n">
-        <v>13</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="G168" t="n">
-        <v>0.2307692307692308</v>
+        <v>144</v>
       </c>
       <c r="H168" t="n">
-        <v>144</v>
+        <v>85.27640980760448</v>
       </c>
       <c r="I168" t="n">
-        <v>85.27640980760448</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="L168" t="n">
+        <v>89</v>
+      </c>
+      <c r="M168" t="n">
         <v>31129225</v>
       </c>
-      <c r="K168" t="n">
+      <c r="N168" t="n">
         <v>438317</v>
-      </c>
-      <c r="L168" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="M168" t="n">
-        <v>0</v>
-      </c>
-      <c r="N168" t="n">
-        <v>0.07692307692307693</v>
       </c>
       <c r="O168" t="n">
         <v>402081867822.7651</v>
@@ -10558,34 +10532,34 @@
         <v>22</v>
       </c>
       <c r="E169" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F169" t="n">
-        <v>9</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G169" t="n">
+        <v>53</v>
+      </c>
+      <c r="H169" t="n">
+        <v>80.12388885901606</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J169" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="H169" t="n">
-        <v>53</v>
-      </c>
-      <c r="I169" t="n">
-        <v>80.12388885901606</v>
-      </c>
-      <c r="J169" t="n">
+      <c r="K169" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L169" t="n">
+        <v>5</v>
+      </c>
+      <c r="M169" t="n">
         <v>106487</v>
       </c>
-      <c r="K169" t="n">
+      <c r="N169" t="n">
         <v>702</v>
-      </c>
-      <c r="L169" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="M169" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N169" t="n">
-        <v>0.2222222222222222</v>
       </c>
       <c r="O169" t="n">
         <v>381533608.0299667</v>
@@ -10618,34 +10592,34 @@
         <v>4</v>
       </c>
       <c r="E170" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F170" t="n">
-        <v>21</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G170" t="n">
-        <v>0.6666666666666666</v>
+        <v>264</v>
       </c>
       <c r="H170" t="n">
-        <v>264</v>
+        <v>81.56494716524233</v>
       </c>
       <c r="I170" t="n">
-        <v>81.56494716524233</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
         <v>2165828</v>
       </c>
-      <c r="K170" t="n">
+      <c r="N170" t="n">
         <v>824292</v>
-      </c>
-      <c r="L170" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="M170" t="n">
-        <v>0</v>
-      </c>
-      <c r="N170" t="n">
-        <v>0.2857142857142857</v>
       </c>
       <c r="O170" t="n">
         <v>24619257323.04358</v>
@@ -10681,31 +10655,31 @@
         <v>4</v>
       </c>
       <c r="F171" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>83.66964462854358</v>
       </c>
       <c r="I171" t="n">
-        <v>83.66964462854358</v>
+        <v>0.5</v>
       </c>
       <c r="J171" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
         <v>101998</v>
       </c>
-      <c r="K171" t="n">
+      <c r="N171" t="n">
         <v>811</v>
-      </c>
-      <c r="L171" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M171" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N171" t="n">
-        <v>0.25</v>
       </c>
       <c r="O171" t="n">
         <v>256898922.1173913</v>
@@ -10738,34 +10712,34 @@
         <v>15</v>
       </c>
       <c r="E172" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F172" t="n">
-        <v>8</v>
+        <v>0.375</v>
       </c>
       <c r="G172" t="n">
-        <v>0.375</v>
+        <v>92</v>
       </c>
       <c r="H172" t="n">
-        <v>92</v>
+        <v>77.94490731899066</v>
       </c>
       <c r="I172" t="n">
-        <v>77.94490731899066</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
         <v>2191580</v>
       </c>
-      <c r="K172" t="n">
+      <c r="N172" t="n">
         <v>64589</v>
-      </c>
-      <c r="L172" t="n">
-        <v>0</v>
-      </c>
-      <c r="M172" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0.125</v>
       </c>
       <c r="O172" t="n">
         <v>55637838883.17263</v>
@@ -10798,34 +10772,34 @@
         <v>7</v>
       </c>
       <c r="E173" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F173" t="n">
-        <v>24</v>
+        <v>0.375</v>
       </c>
       <c r="G173" t="n">
-        <v>0.375</v>
+        <v>1241</v>
       </c>
       <c r="H173" t="n">
-        <v>1241</v>
+        <v>83.75773732376824</v>
       </c>
       <c r="I173" t="n">
-        <v>83.75773732376824</v>
+        <v>0.5</v>
       </c>
       <c r="J173" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L173" t="n">
+        <v>946</v>
+      </c>
+      <c r="M173" t="n">
         <v>12619600</v>
       </c>
-      <c r="K173" t="n">
+      <c r="N173" t="n">
         <v>390757</v>
-      </c>
-      <c r="L173" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M173" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0.25</v>
       </c>
       <c r="O173" t="n">
         <v>41834354928.9145</v>
@@ -10858,34 +10832,32 @@
         <v>11</v>
       </c>
       <c r="E174" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F174" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G174" t="n">
-        <v>0.5</v>
+        <v>28</v>
       </c>
       <c r="H174" t="n">
-        <v>28</v>
+        <v>69.63311101757823</v>
       </c>
       <c r="I174" t="n">
-        <v>69.63311101757823</v>
+        <v>0.75</v>
       </c>
       <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
         <v>28394180</v>
       </c>
-      <c r="K174" t="n">
+      <c r="N174" t="n">
         <v>447400</v>
-      </c>
-      <c r="L174" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M174" t="n">
-        <v>0</v>
-      </c>
-      <c r="N174" t="n">
-        <v>0.25</v>
       </c>
       <c r="O174" t="n">
         <v>217731958881.2757</v>
@@ -10918,34 +10890,34 @@
         <v>4</v>
       </c>
       <c r="E175" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F175" t="n">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>14</v>
       </c>
       <c r="H175" t="n">
-        <v>14</v>
+        <v>82.4751345668551</v>
       </c>
       <c r="I175" t="n">
-        <v>82.4751345668551</v>
+        <v>0.3</v>
       </c>
       <c r="J175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
         <v>1386914</v>
       </c>
-      <c r="K175" t="n">
+      <c r="N175" t="n">
         <v>17364</v>
-      </c>
-      <c r="L175" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M175" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0.5</v>
       </c>
       <c r="O175" t="n">
         <v>9827757134.045345</v>
@@ -10978,34 +10950,32 @@
         <v>2</v>
       </c>
       <c r="E176" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F176" t="n">
-        <v>7</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G176" t="n">
-        <v>0.8571428571428571</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>75.16689442133934</v>
       </c>
       <c r="I176" t="n">
-        <v>75.16689442133934</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
         <v>52560</v>
       </c>
-      <c r="K176" t="n">
+      <c r="N176" t="n">
         <v>264</v>
-      </c>
-      <c r="L176" t="n">
-        <v>0</v>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="n">
-        <v>0</v>
       </c>
       <c r="O176" t="n">
         <v>4311724441.00162</v>
@@ -11038,34 +11008,34 @@
         <v>9</v>
       </c>
       <c r="E177" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F177" t="n">
-        <v>12</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1666666666666667</v>
+        <v>163</v>
       </c>
       <c r="H177" t="n">
-        <v>163</v>
+        <v>88.69059576880308</v>
       </c>
       <c r="I177" t="n">
-        <v>88.69059576880308</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J177" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>17</v>
+      </c>
+      <c r="M177" t="n">
         <v>3090150</v>
       </c>
-      <c r="K177" t="n">
+      <c r="N177" t="n">
         <v>309500</v>
-      </c>
-      <c r="L177" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M177" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N177" t="n">
-        <v>0</v>
       </c>
       <c r="O177" t="n">
         <v>136262253107.0186</v>
@@ -11098,34 +11068,34 @@
         <v>9</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F178" t="n">
-        <v>23</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G178" t="n">
+        <v>427</v>
+      </c>
+      <c r="H178" t="n">
+        <v>87.19944684859958</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="J178" t="n">
         <v>0.04347826086956522</v>
       </c>
-      <c r="H178" t="n">
-        <v>427</v>
-      </c>
-      <c r="I178" t="n">
-        <v>87.19944684859958</v>
-      </c>
-      <c r="J178" t="n">
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>71</v>
+      </c>
+      <c r="M178" t="n">
         <v>26534504</v>
       </c>
-      <c r="K178" t="n">
+      <c r="N178" t="n">
         <v>2149690</v>
-      </c>
-      <c r="L178" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="M178" t="n">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="N178" t="n">
-        <v>0</v>
       </c>
       <c r="O178" t="n">
         <v>1581403461918.647</v>
@@ -11158,34 +11128,34 @@
         <v>18</v>
       </c>
       <c r="E179" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F179" t="n">
-        <v>9</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G179" t="n">
+        <v>5</v>
+      </c>
+      <c r="H179" t="n">
+        <v>78.65062773143367</v>
+      </c>
+      <c r="I179" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="H179" t="n">
-        <v>5</v>
-      </c>
-      <c r="I179" t="n">
-        <v>78.65062773143367</v>
-      </c>
       <c r="J179" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
         <v>1201255</v>
       </c>
-      <c r="K179" t="n">
+      <c r="N179" t="n">
         <v>14874</v>
-      </c>
-      <c r="L179" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M179" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N179" t="n">
-        <v>0.2222222222222222</v>
       </c>
       <c r="O179" t="n">
         <v>3994628006.745105</v>
@@ -11218,34 +11188,34 @@
         <v>15</v>
       </c>
       <c r="E180" t="n">
+        <v>4</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G180" t="n">
+        <v>11</v>
+      </c>
+      <c r="H180" t="n">
+        <v>85.20033449342971</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
         <v>1</v>
       </c>
-      <c r="F180" t="n">
-        <v>4</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H180" t="n">
-        <v>11</v>
-      </c>
-      <c r="I180" t="n">
-        <v>85.20033449342971</v>
-      </c>
-      <c r="J180" t="n">
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>7</v>
+      </c>
+      <c r="M180" t="n">
         <v>1274709</v>
       </c>
-      <c r="K180" t="n">
+      <c r="N180" t="n">
         <v>45228</v>
-      </c>
-      <c r="L180" t="n">
-        <v>0</v>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="n">
-        <v>0</v>
       </c>
       <c r="O180" t="n">
         <v>44886020115.4547</v>
@@ -11278,34 +11248,32 @@
         <v>13</v>
       </c>
       <c r="E181" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F181" t="n">
-        <v>8</v>
+        <v>0.375</v>
       </c>
       <c r="G181" t="n">
+        <v>300</v>
+      </c>
+      <c r="H181" t="n">
+        <v>83.64994367276856</v>
+      </c>
+      <c r="I181" t="n">
         <v>0.375</v>
       </c>
-      <c r="H181" t="n">
-        <v>300</v>
-      </c>
-      <c r="I181" t="n">
-        <v>83.64994367276856</v>
-      </c>
       <c r="J181" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
         <v>1996617</v>
       </c>
-      <c r="K181" t="n">
+      <c r="N181" t="n">
         <v>20273</v>
-      </c>
-      <c r="L181" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="M181" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="N181" t="n">
-        <v>0</v>
       </c>
       <c r="O181" t="n">
         <v>75450338430.74243</v>
@@ -11338,34 +11306,32 @@
         <v>3</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H182" t="n">
-        <v>5</v>
+        <v>81.53374230285004</v>
       </c>
       <c r="I182" t="n">
-        <v>81.53374230285004</v>
+        <v>1</v>
       </c>
       <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
         <v>560157</v>
       </c>
-      <c r="K182" t="n">
+      <c r="N182" t="n">
         <v>163820</v>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="n">
-        <v>0</v>
-      </c>
-      <c r="N182" t="n">
-        <v>0</v>
       </c>
       <c r="O182" t="n">
         <v>9239796421.056559</v>
@@ -11398,34 +11364,34 @@
         <v>13</v>
       </c>
       <c r="E183" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F183" t="n">
-        <v>6</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G183" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>86.88084104207185</v>
       </c>
       <c r="I183" t="n">
-        <v>86.88084104207185</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J183" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
         <v>657394</v>
       </c>
-      <c r="K183" t="n">
+      <c r="N183" t="n">
         <v>13812</v>
-      </c>
-      <c r="L183" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M183" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="N183" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="O183" t="n">
         <v>12254964877.72909</v>
@@ -11458,34 +11424,34 @@
         <v>13</v>
       </c>
       <c r="E184" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F184" t="n">
-        <v>25</v>
+        <v>0.6</v>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>94</v>
       </c>
       <c r="H184" t="n">
-        <v>94</v>
+        <v>89.70844311603001</v>
       </c>
       <c r="I184" t="n">
-        <v>89.70844311603001</v>
+        <v>0.64</v>
       </c>
       <c r="J184" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>6</v>
+      </c>
+      <c r="M184" t="n">
         <v>7276604</v>
       </c>
-      <c r="K184" t="n">
+      <c r="N184" t="n">
         <v>77474</v>
-      </c>
-      <c r="L184" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="M184" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="N184" t="n">
-        <v>0</v>
       </c>
       <c r="O184" t="n">
         <v>117641533059.7514</v>
@@ -11518,34 +11484,34 @@
         <v>9</v>
       </c>
       <c r="E185" t="n">
+        <v>8</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G185" t="n">
+        <v>13</v>
+      </c>
+      <c r="H185" t="n">
+        <v>89.56740209484853</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
         <v>4</v>
       </c>
-      <c r="F185" t="n">
-        <v>8</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H185" t="n">
-        <v>13</v>
-      </c>
-      <c r="I185" t="n">
-        <v>89.56740209484853</v>
-      </c>
-      <c r="J185" t="n">
+      <c r="M185" t="n">
         <v>4199083</v>
       </c>
-      <c r="K185" t="n">
+      <c r="N185" t="n">
         <v>5860</v>
-      </c>
-      <c r="L185" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M185" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N185" t="n">
-        <v>0</v>
       </c>
       <c r="O185" t="n">
         <v>28296855564.12588</v>
@@ -11578,34 +11544,34 @@
         <v>8</v>
       </c>
       <c r="E186" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F186" t="n">
-        <v>16</v>
+        <v>0.5625</v>
       </c>
       <c r="G186" t="n">
-        <v>0.5625</v>
+        <v>216</v>
       </c>
       <c r="H186" t="n">
-        <v>216</v>
+        <v>90.4503108526801</v>
       </c>
       <c r="I186" t="n">
-        <v>90.4503108526801</v>
+        <v>0.8125</v>
       </c>
       <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="L186" t="n">
+        <v>53</v>
+      </c>
+      <c r="M186" t="n">
         <v>10625176</v>
       </c>
-      <c r="K186" t="n">
+      <c r="N186" t="n">
         <v>619745</v>
-      </c>
-      <c r="L186" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="M186" t="n">
-        <v>0</v>
-      </c>
-      <c r="N186" t="n">
-        <v>0.1875</v>
       </c>
       <c r="O186" t="n">
         <v>2838262263949.302</v>
@@ -11641,31 +11607,29 @@
         <v>2</v>
       </c>
       <c r="F187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>90.46304348229165</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
         <v>1</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>90.46304348229165</v>
-      </c>
-      <c r="J187" t="n">
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
         <v>21032</v>
       </c>
-      <c r="K187" t="n">
+      <c r="N187" t="n">
         <v>459</v>
-      </c>
-      <c r="L187" t="n">
-        <v>0</v>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="n">
-        <v>0</v>
       </c>
       <c r="O187" t="n">
         <v>323968107.1754295</v>
@@ -11704,28 +11668,28 @@
         <v>1</v>
       </c>
       <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>95.8781657744988</v>
+      </c>
+      <c r="I188" t="n">
         <v>1</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>95.8781657744988</v>
-      </c>
       <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
         <v>5314317</v>
       </c>
-      <c r="K188" t="n">
+      <c r="N188" t="n">
         <v>83600</v>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="n">
-        <v>0</v>
-      </c>
-      <c r="N188" t="n">
-        <v>0</v>
       </c>
       <c r="O188" t="n">
         <v>636573022688.9026</v>
@@ -11764,28 +11728,28 @@
         <v>1</v>
       </c>
       <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>98.2199906178672</v>
+      </c>
+      <c r="I189" t="n">
         <v>1</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>98.2199906178672</v>
-      </c>
       <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
         <v>1951591</v>
       </c>
-      <c r="K189" t="n">
+      <c r="N189" t="n">
         <v>11586</v>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="n">
-        <v>0</v>
-      </c>
-      <c r="N189" t="n">
-        <v>0</v>
       </c>
       <c r="O189" t="n">
         <v>246917378894.8139</v>
@@ -11818,34 +11782,34 @@
         <v>2</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>4</v>
+      </c>
+      <c r="H190" t="n">
+        <v>95.8781657744988</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
         <v>1</v>
       </c>
-      <c r="G190" t="n">
-        <v>0</v>
-      </c>
-      <c r="H190" t="n">
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
         <v>4</v>
       </c>
-      <c r="I190" t="n">
-        <v>95.8781657744988</v>
-      </c>
-      <c r="J190" t="n">
+      <c r="M190" t="n">
         <v>37429</v>
       </c>
-      <c r="K190" t="n">
+      <c r="N190" t="n">
         <v>34</v>
-      </c>
-      <c r="L190" t="n">
-        <v>0</v>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="n">
-        <v>0</v>
       </c>
       <c r="O190" t="n">
         <v>1505429155.22133</v>
